--- a/reports/railway_report.xlsx
+++ b/reports/railway_report.xlsx
@@ -3570,9 +3570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="#,##0.0" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -3611,7 +3609,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">

--- a/reports/railway_report.xlsx
+++ b/reports/railway_report.xlsx
@@ -4973,11 +4973,9 @@
       <c s="1" r="K2" t="n">
         <v>237729.7291185077</v>
       </c>
-      <c s="1" r="L2" t="n">
-        <v>15029733.33333333</v>
-      </c>
+      <c s="1" r="L2" t="n"/>
       <c s="1" r="M2" t="n">
-        <v>0.805</v>
+        <v>0</v>
       </c>
       <c s="1" r="N2" t="s">
         <v>56</v>
@@ -5017,11 +5015,9 @@
       <c s="1" r="K3" t="n">
         <v>197847.1477146645</v>
       </c>
-      <c s="1" r="L3" t="n">
-        <v>163671331.2183439</v>
-      </c>
+      <c s="1" r="L3" t="n"/>
       <c s="1" r="M3" t="n">
-        <v>0.6819638800764327</v>
+        <v>0</v>
       </c>
       <c s="1" r="N3" t="s">
         <v>58</v>
@@ -5061,11 +5057,9 @@
       <c s="1" r="K4" t="n">
         <v>575529.9143700042</v>
       </c>
-      <c s="1" r="L4" t="n">
-        <v>478267586.7926666</v>
-      </c>
+      <c s="1" r="L4" t="n"/>
       <c s="1" r="M4" t="n">
-        <v>1.992781611636111</v>
+        <v>0</v>
       </c>
       <c s="1" r="N4" t="s">
         <v>58</v>
@@ -5105,11 +5099,9 @@
       <c s="1" r="K5" t="n">
         <v>189429.008659412</v>
       </c>
-      <c s="1" r="L5" t="n">
-        <v>157591051.5694671</v>
-      </c>
+      <c s="1" r="L5" t="n"/>
       <c s="1" r="M5" t="n">
-        <v>0.6566293815394463</v>
+        <v>0</v>
       </c>
       <c s="1" r="N5" t="s">
         <v>58</v>
@@ -5149,11 +5141,9 @@
       <c s="1" r="K6" t="n">
         <v>436734.1525943377</v>
       </c>
-      <c s="1" r="L6" t="n">
-        <v>102695838.0952381</v>
-      </c>
+      <c s="1" r="L6" t="n"/>
       <c s="1" r="M6" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c s="1" r="N6" t="s">
         <v>58</v>
@@ -5193,11 +5183,9 @@
       <c s="1" r="K7" t="n">
         <v>384326.4935104916</v>
       </c>
-      <c s="1" r="L7" t="n">
-        <v>54546915.69437979</v>
-      </c>
+      <c s="1" r="L7" t="n"/>
       <c s="1" r="M7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c s="1" r="N7" t="s">
         <v>58</v>
@@ -5271,11 +5259,9 @@
       <c s="1" r="K9" t="n">
         <v>174706.7833157128</v>
       </c>
-      <c s="1" r="L9" t="n">
-        <v>12737057.14285714</v>
-      </c>
+      <c s="1" r="L9" t="n"/>
       <c s="1" r="M9" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c s="1" r="N9" t="s">
         <v>56</v>
@@ -5315,11 +5301,9 @@
       <c s="1" r="K10" t="n">
         <v>330011.2101305494</v>
       </c>
-      <c s="1" r="L10" t="n">
-        <v>23782114.28571428</v>
-      </c>
+      <c s="1" r="L10" t="n"/>
       <c s="1" r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c s="1" r="N10" t="s">
         <v>56</v>
@@ -5359,11 +5343,9 @@
       <c s="1" r="K11" t="n">
         <v>992856.1020210426</v>
       </c>
-      <c s="1" r="L11" t="n">
-        <v>452315874.3478572</v>
-      </c>
+      <c s="1" r="L11" t="n"/>
       <c s="1" r="M11" t="n">
-        <v>1.884649476449405</v>
+        <v>0</v>
       </c>
       <c s="1" r="N11" t="s">
         <v>58</v>
@@ -5403,11 +5385,9 @@
       <c s="1" r="K12" t="n">
         <v>207637.7458713452</v>
       </c>
-      <c s="1" r="L12" t="n">
-        <v>130188914.2354543</v>
-      </c>
+      <c s="1" r="L12" t="n"/>
       <c s="1" r="M12" t="n">
-        <v>0.5424538093143929</v>
+        <v>0</v>
       </c>
       <c s="1" r="N12" t="s">
         <v>58</v>
@@ -5481,11 +5461,9 @@
       <c s="1" r="K14" t="n">
         <v>430630.2811176758</v>
       </c>
-      <c s="1" r="L14" t="n">
-        <v>504992714.110238</v>
-      </c>
+      <c s="1" r="L14" t="n"/>
       <c s="1" r="M14" t="n">
-        <v>2.104136308792658</v>
+        <v>0</v>
       </c>
       <c s="1" r="N14" t="s">
         <v>58</v>
@@ -5525,11 +5503,9 @@
       <c s="1" r="K15" t="n">
         <v>542006.4685082189</v>
       </c>
-      <c s="1" r="L15" t="n">
-        <v>304467714.8722553</v>
-      </c>
+      <c s="1" r="L15" t="n"/>
       <c s="1" r="M15" t="n">
-        <v>1.268615478634397</v>
+        <v>0</v>
       </c>
       <c s="1" r="N15" t="s">
         <v>58</v>
@@ -5603,11 +5579,9 @@
       <c s="1" r="K17" t="n">
         <v>882934.1268775217</v>
       </c>
-      <c s="1" r="L17" t="n">
-        <v>320050811.9047619</v>
-      </c>
+      <c s="1" r="L17" t="n"/>
       <c s="1" r="M17" t="n">
-        <v>1.765</v>
+        <v>0</v>
       </c>
       <c s="1" r="N17" t="s">
         <v>58</v>
@@ -5647,11 +5621,9 @@
       <c s="1" r="K18" t="n">
         <v>486310.745341696</v>
       </c>
-      <c s="1" r="L18" t="n">
-        <v>71900523.96050452</v>
-      </c>
+      <c s="1" r="L18" t="n"/>
       <c s="1" r="M18" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c s="1" r="N18" t="s">
         <v>58</v>
@@ -5691,11 +5663,9 @@
       <c s="1" r="K19" t="n">
         <v>399169.2721317044</v>
       </c>
-      <c s="1" r="L19" t="n">
-        <v>33914285.71428571</v>
-      </c>
+      <c s="1" r="L19" t="n"/>
       <c s="1" r="M19" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N19" t="s">
         <v>56</v>
@@ -5735,11 +5705,9 @@
       <c s="1" r="K20" t="n">
         <v>610418.3216519624</v>
       </c>
-      <c s="1" r="L20" t="n">
-        <v>382268571.4525205</v>
-      </c>
+      <c s="1" r="L20" t="n"/>
       <c s="1" r="M20" t="n">
-        <v>1.592785714385502</v>
+        <v>0</v>
       </c>
       <c s="1" r="N20" t="s">
         <v>58</v>
@@ -5779,11 +5747,9 @@
       <c s="1" r="K21" t="n">
         <v>284843.3137878124</v>
       </c>
-      <c s="1" r="L21" t="n">
-        <v>148320476.1904762</v>
-      </c>
+      <c s="1" r="L21" t="n"/>
       <c s="1" r="M21" t="n">
-        <v>0.6180019841269841</v>
+        <v>0</v>
       </c>
       <c s="1" r="N21" t="s">
         <v>58</v>
@@ -5823,11 +5789,9 @@
       <c s="1" r="K22" t="n">
         <v>504185.0570733797</v>
       </c>
-      <c s="1" r="L22" t="n">
-        <v>166924289.5416646</v>
-      </c>
+      <c s="1" r="L22" t="n"/>
       <c s="1" r="M22" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c s="1" r="N22" t="s">
         <v>58</v>
@@ -5867,11 +5831,9 @@
       <c s="1" r="K23" t="n">
         <v>1059381.710980016</v>
       </c>
-      <c s="1" r="L23" t="n">
-        <v>1392831428.571429</v>
-      </c>
+      <c s="1" r="L23" t="n"/>
       <c s="1" r="M23" t="n">
-        <v>5.803464285714285</v>
+        <v>0</v>
       </c>
       <c s="1" r="N23" t="s">
         <v>58</v>
@@ -5911,11 +5873,9 @@
       <c s="1" r="K24" t="n">
         <v>181076.9055962893</v>
       </c>
-      <c s="1" r="L24" t="n">
-        <v>25699989.12523663</v>
-      </c>
+      <c s="1" r="L24" t="n"/>
       <c s="1" r="M24" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c s="1" r="N24" t="s">
         <v>58</v>
@@ -5955,11 +5915,9 @@
       <c s="1" r="K25" t="n">
         <v>186791.9392881801</v>
       </c>
-      <c s="1" r="L25" t="n">
-        <v>75125314.65785143</v>
-      </c>
+      <c s="1" r="L25" t="n"/>
       <c s="1" r="M25" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c s="1" r="N25" t="s">
         <v>58</v>
@@ -5999,11 +5957,9 @@
       <c s="1" r="K26" t="n">
         <v>554913.0709220777</v>
       </c>
-      <c s="1" r="L26" t="n">
-        <v>99186000</v>
-      </c>
+      <c s="1" r="L26" t="n"/>
       <c s="1" r="M26" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c s="1" r="N26" t="s">
         <v>58</v>
@@ -6043,11 +5999,9 @@
       <c s="1" r="K27" t="n">
         <v>168939.3424898408</v>
       </c>
-      <c s="1" r="L27" t="n">
-        <v>8275085.714285714</v>
-      </c>
+      <c s="1" r="L27" t="n"/>
       <c s="1" r="M27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c s="1" r="N27" t="s">
         <v>56</v>
@@ -6087,11 +6041,9 @@
       <c s="1" r="K28" t="n">
         <v>145492.2688754158</v>
       </c>
-      <c s="1" r="L28" t="n">
-        <v>53178542.85714285</v>
-      </c>
+      <c s="1" r="L28" t="n"/>
       <c s="1" r="M28" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c s="1" r="N28" t="s">
         <v>58</v>
@@ -6267,11 +6219,9 @@
       <c s="1" r="K33" t="n">
         <v>160405.8979151255</v>
       </c>
-      <c s="1" r="L33" t="n">
-        <v>70176999.99999999</v>
-      </c>
+      <c s="1" r="L33" t="n"/>
       <c s="1" r="M33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c s="1" r="N33" t="s">
         <v>58</v>
@@ -6311,11 +6261,9 @@
       <c s="1" r="K34" t="n">
         <v>741380.9067370294</v>
       </c>
-      <c s="1" r="L34" t="n">
-        <v>547545256.9288925</v>
-      </c>
+      <c s="1" r="L34" t="n"/>
       <c s="1" r="M34" t="n">
-        <v>2.281438570537052</v>
+        <v>0</v>
       </c>
       <c s="1" r="N34" t="s">
         <v>58</v>
@@ -6389,11 +6337,9 @@
       <c s="1" r="K36" t="n">
         <v>174899.0504224309</v>
       </c>
-      <c s="1" r="L36" t="n">
-        <v>4313319.047619048</v>
-      </c>
+      <c s="1" r="L36" t="n"/>
       <c s="1" r="M36" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c s="1" r="N36" t="s">
         <v>56</v>
@@ -6433,11 +6379,9 @@
       <c s="1" r="K37" t="n">
         <v>871724.9057541313</v>
       </c>
-      <c s="1" r="L37" t="n">
-        <v>339089237.0185607</v>
-      </c>
+      <c s="1" r="L37" t="n"/>
       <c s="1" r="M37" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c s="1" r="N37" t="s">
         <v>58</v>
@@ -6477,11 +6421,9 @@
       <c s="1" r="K38" t="n">
         <v>445179.3452070396</v>
       </c>
-      <c s="1" r="L38" t="n">
-        <v>225055200.0380018</v>
-      </c>
+      <c s="1" r="L38" t="n"/>
       <c s="1" r="M38" t="n">
-        <v>0.9377300001583408</v>
+        <v>0</v>
       </c>
       <c s="1" r="N38" t="s">
         <v>58</v>
@@ -6555,11 +6497,9 @@
       <c s="1" r="K40" t="n">
         <v>288897.5563188124</v>
       </c>
-      <c s="1" r="L40" t="n">
-        <v>106036571.7199923</v>
-      </c>
+      <c s="1" r="L40" t="n"/>
       <c s="1" r="M40" t="n">
-        <v>0.575</v>
+        <v>0</v>
       </c>
       <c s="1" r="N40" t="s">
         <v>58</v>
@@ -6599,11 +6539,9 @@
       <c s="1" r="K41" t="n">
         <v>401178.5892238459</v>
       </c>
-      <c s="1" r="L41" t="n">
-        <v>339194700.2964891</v>
-      </c>
+      <c s="1" r="L41" t="n"/>
       <c s="1" r="M41" t="n">
-        <v>1.413311251235371</v>
+        <v>0</v>
       </c>
       <c s="1" r="N41" t="s">
         <v>58</v>
@@ -6643,11 +6581,9 @@
       <c s="1" r="K42" t="n">
         <v>214335.9290731588</v>
       </c>
-      <c s="1" r="L42" t="n">
-        <v>30420395.29109642</v>
-      </c>
+      <c s="1" r="L42" t="n"/>
       <c s="1" r="M42" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c s="1" r="N42" t="s">
         <v>58</v>
@@ -6687,11 +6623,9 @@
       <c s="1" r="K43" t="n">
         <v>325891.8841565744</v>
       </c>
-      <c s="1" r="L43" t="n">
-        <v>50293341.38278154</v>
-      </c>
+      <c s="1" r="L43" t="n"/>
       <c s="1" r="M43" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c s="1" r="N43" t="s">
         <v>58</v>
@@ -6731,11 +6665,9 @@
       <c s="1" r="K44" t="n">
         <v>444031.6603656184</v>
       </c>
-      <c s="1" r="L44" t="n">
-        <v>176116138.0799778</v>
-      </c>
+      <c s="1" r="L44" t="n"/>
       <c s="1" r="M44" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c s="1" r="N44" t="s">
         <v>58</v>
@@ -6775,11 +6707,9 @@
       <c s="1" r="K45" t="n">
         <v>501741.0936452739</v>
       </c>
-      <c s="1" r="L45" t="n">
-        <v>426629727.5233572</v>
-      </c>
+      <c s="1" r="L45" t="n"/>
       <c s="1" r="M45" t="n">
-        <v>1.777623864680655</v>
+        <v>0</v>
       </c>
       <c s="1" r="N45" t="s">
         <v>58</v>
@@ -6853,11 +6783,9 @@
       <c s="1" r="K47" t="n">
         <v>127672.9202168435</v>
       </c>
-      <c s="1" r="L47" t="n">
-        <v>23308190.42763536</v>
-      </c>
+      <c s="1" r="L47" t="n"/>
       <c s="1" r="M47" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c s="1" r="N47" t="s">
         <v>58</v>
@@ -6897,11 +6825,9 @@
       <c s="1" r="K48" t="n">
         <v>285738.528538764</v>
       </c>
-      <c s="1" r="L48" t="n">
-        <v>146061390.9071763</v>
-      </c>
+      <c s="1" r="L48" t="n"/>
       <c s="1" r="M48" t="n">
-        <v>0.6085891287799013</v>
+        <v>0</v>
       </c>
       <c s="1" r="N48" t="s">
         <v>58</v>
@@ -6975,11 +6901,9 @@
       <c s="1" r="K50" t="n">
         <v>135970.9109453127</v>
       </c>
-      <c s="1" r="L50" t="n">
-        <v>17299228.57142857</v>
-      </c>
+      <c s="1" r="L50" t="n"/>
       <c s="1" r="M50" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c s="1" r="N50" t="s">
         <v>58</v>
@@ -7019,11 +6943,9 @@
       <c s="1" r="K51" t="n">
         <v>203323.602259863</v>
       </c>
-      <c s="1" r="L51" t="n">
-        <v>198337333.5724437</v>
-      </c>
+      <c s="1" r="L51" t="n"/>
       <c s="1" r="M51" t="n">
-        <v>0.8264055565518488</v>
+        <v>0</v>
       </c>
       <c s="1" r="N51" t="s">
         <v>58</v>
@@ -7063,11 +6985,9 @@
       <c s="1" r="K52" t="n">
         <v>216046.0813479606</v>
       </c>
-      <c s="1" r="L52" t="n">
-        <v>97208952.38095239</v>
-      </c>
+      <c s="1" r="L52" t="n"/>
       <c s="1" r="M52" t="n">
-        <v>0.4050373015873016</v>
+        <v>0</v>
       </c>
       <c s="1" r="N52" t="s">
         <v>58</v>
@@ -7107,11 +7027,9 @@
       <c s="1" r="K53" t="n">
         <v>224900.7915077315</v>
       </c>
-      <c s="1" r="L53" t="n">
-        <v>44411921.96767627</v>
-      </c>
+      <c s="1" r="L53" t="n"/>
       <c s="1" r="M53" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c s="1" r="N53" t="s">
         <v>58</v>
@@ -7151,11 +7069,9 @@
       <c s="1" r="K54" t="n">
         <v>781156.5147665704</v>
       </c>
-      <c s="1" r="L54" t="n">
-        <v>64519614.28571428</v>
-      </c>
+      <c s="1" r="L54" t="n"/>
       <c s="1" r="M54" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c s="1" r="N54" t="s">
         <v>56</v>
@@ -7195,11 +7111,9 @@
       <c s="1" r="K55" t="n">
         <v>169143.7426828166</v>
       </c>
-      <c s="1" r="L55" t="n">
-        <v>138204999.6410714</v>
-      </c>
+      <c s="1" r="L55" t="n"/>
       <c s="1" r="M55" t="n">
-        <v>0.575854165171131</v>
+        <v>0</v>
       </c>
       <c s="1" r="N55" t="s">
         <v>58</v>
@@ -7239,11 +7153,9 @@
       <c s="1" r="K56" t="n">
         <v>423379.3417861378</v>
       </c>
-      <c s="1" r="L56" t="n">
-        <v>151580905.3042857</v>
-      </c>
+      <c s="1" r="L56" t="n"/>
       <c s="1" r="M56" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c s="1" r="N56" t="s">
         <v>58</v>
@@ -7283,11 +7195,9 @@
       <c s="1" r="K57" t="n">
         <v>250804.5690286943</v>
       </c>
-      <c s="1" r="L57" t="n">
-        <v>49106285.66939904</v>
-      </c>
+      <c s="1" r="L57" t="n"/>
       <c s="1" r="M57" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c s="1" r="N57" t="s">
         <v>58</v>
@@ -7327,11 +7237,9 @@
       <c s="1" r="K58" t="n">
         <v>385278.8427156404</v>
       </c>
-      <c s="1" r="L58" t="n">
-        <v>150636427.9794003</v>
-      </c>
+      <c s="1" r="L58" t="n"/>
       <c s="1" r="M58" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c s="1" r="N58" t="s">
         <v>58</v>
@@ -7371,11 +7279,9 @@
       <c s="1" r="K59" t="n">
         <v>474296.531935713</v>
       </c>
-      <c s="1" r="L59" t="n">
-        <v>113702571.4285714</v>
-      </c>
+      <c s="1" r="L59" t="n"/>
       <c s="1" r="M59" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c s="1" r="N59" t="s">
         <v>58</v>
@@ -7415,11 +7321,9 @@
       <c s="1" r="K60" t="n">
         <v>388520.855083791</v>
       </c>
-      <c s="1" r="L60" t="n">
-        <v>362025614.5895437</v>
-      </c>
+      <c s="1" r="L60" t="n"/>
       <c s="1" r="M60" t="n">
-        <v>1.508440060789765</v>
+        <v>0</v>
       </c>
       <c s="1" r="N60" t="s">
         <v>58</v>
@@ -7459,11 +7363,9 @@
       <c s="1" r="K61" t="n">
         <v>494062.5689239422</v>
       </c>
-      <c s="1" r="L61" t="n">
-        <v>93378250</v>
-      </c>
+      <c s="1" r="L61" t="n"/>
       <c s="1" r="M61" t="n">
-        <v>1.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N61" t="s">
         <v>58</v>
@@ -7503,11 +7405,9 @@
       <c s="1" r="K62" t="n">
         <v>226350.4416667187</v>
       </c>
-      <c s="1" r="L62" t="n">
-        <v>57639970.77673843</v>
-      </c>
+      <c s="1" r="L62" t="n"/>
       <c s="1" r="M62" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c s="1" r="N62" t="s">
         <v>58</v>
@@ -7547,11 +7447,9 @@
       <c s="1" r="K63" t="n">
         <v>218032.1823456399</v>
       </c>
-      <c s="1" r="L63" t="n">
-        <v>93953235.13774595</v>
-      </c>
+      <c s="1" r="L63" t="n"/>
       <c s="1" r="M63" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c s="1" r="N63" t="s">
         <v>58</v>
@@ -7625,11 +7523,9 @@
       <c s="1" r="K65" t="n">
         <v>383401.0831776761</v>
       </c>
-      <c s="1" r="L65" t="n">
-        <v>153565153.0237378</v>
-      </c>
+      <c s="1" r="L65" t="n"/>
       <c s="1" r="M65" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c s="1" r="N65" t="s">
         <v>58</v>
@@ -7703,11 +7599,9 @@
       <c s="1" r="K67" t="n">
         <v>737617.6126348921</v>
       </c>
-      <c s="1" r="L67" t="n">
-        <v>74766476.19047619</v>
-      </c>
+      <c s="1" r="L67" t="n"/>
       <c s="1" r="M67" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c s="1" r="N67" t="s">
         <v>58</v>
@@ -7747,11 +7641,9 @@
       <c s="1" r="K68" t="n">
         <v>200841.0562221433</v>
       </c>
-      <c s="1" r="L68" t="n">
-        <v>37469267.2864657</v>
-      </c>
+      <c s="1" r="L68" t="n"/>
       <c s="1" r="M68" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="1" r="N68" t="s">
         <v>58</v>
@@ -7791,11 +7683,9 @@
       <c s="1" r="K69" t="n">
         <v>579923.179482153</v>
       </c>
-      <c s="1" r="L69" t="n">
-        <v>87653866.66666667</v>
-      </c>
+      <c s="1" r="L69" t="n"/>
       <c s="1" r="M69" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N69" t="s">
         <v>58</v>
@@ -7835,11 +7725,9 @@
       <c s="1" r="K70" t="n">
         <v>504777.6569473349</v>
       </c>
-      <c s="1" r="L70" t="n">
-        <v>271920418.0625001</v>
-      </c>
+      <c s="1" r="L70" t="n"/>
       <c s="1" r="M70" t="n">
-        <v>1.133001741927084</v>
+        <v>0</v>
       </c>
       <c s="1" r="N70" t="s">
         <v>58</v>
@@ -7879,11 +7767,9 @@
       <c s="1" r="K71" t="n">
         <v>369047.9143043871</v>
       </c>
-      <c s="1" r="L71" t="n">
-        <v>53026866.66666666</v>
-      </c>
+      <c s="1" r="L71" t="n"/>
       <c s="1" r="M71" t="n">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c s="1" r="N71" t="s">
         <v>58</v>
@@ -7923,11 +7809,9 @@
       <c s="1" r="K72" t="n">
         <v>174478.3373255733</v>
       </c>
-      <c s="1" r="L72" t="n">
-        <v>8546399.999999998</v>
-      </c>
+      <c s="1" r="L72" t="n"/>
       <c s="1" r="M72" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c s="1" r="N72" t="s">
         <v>56</v>
@@ -7967,11 +7851,9 @@
       <c s="1" r="K73" t="n">
         <v>134380.0433009299</v>
       </c>
-      <c s="1" r="L73" t="n">
-        <v>21654000</v>
-      </c>
+      <c s="1" r="L73" t="n"/>
       <c s="1" r="M73" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c s="1" r="N73" t="s">
         <v>58</v>
@@ -8011,11 +7893,9 @@
       <c s="1" r="K74" t="n">
         <v>112951.9802727877</v>
       </c>
-      <c s="1" r="L74" t="n">
-        <v>41358214.28571428</v>
-      </c>
+      <c s="1" r="L74" t="n"/>
       <c s="1" r="M74" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N74" t="s">
         <v>58</v>
@@ -8055,11 +7935,9 @@
       <c s="1" r="K75" t="n">
         <v>190479.0997284938</v>
       </c>
-      <c s="1" r="L75" t="n">
-        <v>12042457.14285714</v>
-      </c>
+      <c s="1" r="L75" t="n"/>
       <c s="1" r="M75" t="n">
-        <v>0.645</v>
+        <v>0</v>
       </c>
       <c s="1" r="N75" t="s">
         <v>56</v>
@@ -8099,11 +7977,9 @@
       <c s="1" r="K76" t="n">
         <v>443453.6463582595</v>
       </c>
-      <c s="1" r="L76" t="n">
-        <v>62938748.87813053</v>
-      </c>
+      <c s="1" r="L76" t="n"/>
       <c s="1" r="M76" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c s="1" r="N76" t="s">
         <v>58</v>
@@ -8143,11 +8019,9 @@
       <c s="1" r="K77" t="n">
         <v>339812.0163415857</v>
       </c>
-      <c s="1" r="L77" t="n">
-        <v>327926833.7346972</v>
-      </c>
+      <c s="1" r="L77" t="n"/>
       <c s="1" r="M77" t="n">
-        <v>1.366361807227905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N77" t="s">
         <v>58</v>
@@ -8255,11 +8129,9 @@
       <c s="1" r="K80" t="n">
         <v>888142.8812759173</v>
       </c>
-      <c s="1" r="L80" t="n">
-        <v>508473623.7225475</v>
-      </c>
+      <c s="1" r="L80" t="n"/>
       <c s="1" r="M80" t="n">
-        <v>2.118640098843948</v>
+        <v>0</v>
       </c>
       <c s="1" r="N80" t="s">
         <v>58</v>
@@ -8299,11 +8171,9 @@
       <c s="1" r="K81" t="n">
         <v>107893.0443281012</v>
       </c>
-      <c s="1" r="L81" t="n">
-        <v>30427128.57142857</v>
-      </c>
+      <c s="1" r="L81" t="n"/>
       <c s="1" r="M81" t="n">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c s="1" r="N81" t="s">
         <v>58</v>
@@ -8343,11 +8213,9 @@
       <c s="1" r="K82" t="n">
         <v>136375.6677588973</v>
       </c>
-      <c s="1" r="L82" t="n">
-        <v>2297023.80952381</v>
-      </c>
+      <c s="1" r="L82" t="n"/>
       <c s="1" r="M82" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c s="1" r="N82" t="s">
         <v>56</v>
@@ -8387,11 +8255,9 @@
       <c s="1" r="K83" t="n">
         <v>401356.8874885656</v>
       </c>
-      <c s="1" r="L83" t="n">
-        <v>112874135.6461667</v>
-      </c>
+      <c s="1" r="L83" t="n"/>
       <c s="1" r="M83" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c s="1" r="N83" t="s">
         <v>58</v>
@@ -8431,11 +8297,9 @@
       <c s="1" r="K84" t="n">
         <v>261181.6351201579</v>
       </c>
-      <c s="1" r="L84" t="n">
-        <v>21981076.19047619</v>
-      </c>
+      <c s="1" r="L84" t="n"/>
       <c s="1" r="M84" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c s="1" r="N84" t="s">
         <v>56</v>
@@ -8475,11 +8339,9 @@
       <c s="1" r="K85" t="n">
         <v>627511.0015154874</v>
       </c>
-      <c s="1" r="L85" t="n">
-        <v>229767857.1428571</v>
-      </c>
+      <c s="1" r="L85" t="n"/>
       <c s="1" r="M85" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N85" t="s">
         <v>58</v>
@@ -8519,11 +8381,9 @@
       <c s="1" r="K86" t="n">
         <v>292735.971280302</v>
       </c>
-      <c s="1" r="L86" t="n">
-        <v>24057928.57142857</v>
-      </c>
+      <c s="1" r="L86" t="n"/>
       <c s="1" r="M86" t="n">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c s="1" r="N86" t="s">
         <v>56</v>
@@ -8563,11 +8423,9 @@
       <c s="1" r="K87" t="n">
         <v>245250.0449693822</v>
       </c>
-      <c s="1" r="L87" t="n">
-        <v>97273448.35812727</v>
-      </c>
+      <c s="1" r="L87" t="n"/>
       <c s="1" r="M87" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c s="1" r="N87" t="s">
         <v>58</v>
@@ -8607,11 +8465,9 @@
       <c s="1" r="K88" t="n">
         <v>134186.5270580095</v>
       </c>
-      <c s="1" r="L88" t="n">
-        <v>13628285.71428571</v>
-      </c>
+      <c s="1" r="L88" t="n"/>
       <c s="1" r="M88" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c s="1" r="N88" t="s">
         <v>58</v>
@@ -8651,11 +8507,9 @@
       <c s="1" r="K89" t="n">
         <v>130862.662162757</v>
       </c>
-      <c s="1" r="L89" t="n">
-        <v>12145333.33333333</v>
-      </c>
+      <c s="1" r="L89" t="n"/>
       <c s="1" r="M89" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c s="1" r="N89" t="s">
         <v>56</v>
@@ -8695,11 +8549,9 @@
       <c s="1" r="K90" t="n">
         <v>263158.4649388389</v>
       </c>
-      <c s="1" r="L90" t="n">
-        <v>184368281.9857505</v>
-      </c>
+      <c s="1" r="L90" t="n"/>
       <c s="1" r="M90" t="n">
-        <v>0.768201174940627</v>
+        <v>0</v>
       </c>
       <c s="1" r="N90" t="s">
         <v>58</v>
@@ -8739,11 +8591,9 @@
       <c s="1" r="K91" t="n">
         <v>233286.9501754108</v>
       </c>
-      <c s="1" r="L91" t="n">
-        <v>190343399.61475</v>
-      </c>
+      <c s="1" r="L91" t="n"/>
       <c s="1" r="M91" t="n">
-        <v>0.7930974983947916</v>
+        <v>0</v>
       </c>
       <c s="1" r="N91" t="s">
         <v>58</v>
@@ -8783,11 +8633,9 @@
       <c s="1" r="K92" t="n">
         <v>196610.4909928544</v>
       </c>
-      <c s="1" r="L92" t="n">
-        <v>36913135.53004328</v>
-      </c>
+      <c s="1" r="L92" t="n"/>
       <c s="1" r="M92" t="n">
-        <v>0.4885</v>
+        <v>0</v>
       </c>
       <c s="1" r="N92" t="s">
         <v>58</v>
@@ -8827,11 +8675,9 @@
       <c s="1" r="K93" t="n">
         <v>279722.754925493</v>
       </c>
-      <c s="1" r="L93" t="n">
-        <v>58979160.4313278</v>
-      </c>
+      <c s="1" r="L93" t="n"/>
       <c s="1" r="M93" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c s="1" r="N93" t="s">
         <v>58</v>
@@ -8871,11 +8717,9 @@
       <c s="1" r="K94" t="n">
         <v>351696.2019737922</v>
       </c>
-      <c s="1" r="L94" t="n">
-        <v>45198533.33333333</v>
-      </c>
+      <c s="1" r="L94" t="n"/>
       <c s="1" r="M94" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c s="1" r="N94" t="s">
         <v>58</v>
@@ -8915,11 +8759,9 @@
       <c s="1" r="K95" t="n">
         <v>361979.2648641969</v>
       </c>
-      <c s="1" r="L95" t="n">
-        <v>350462380.7928572</v>
-      </c>
+      <c s="1" r="L95" t="n"/>
       <c s="1" r="M95" t="n">
-        <v>1.460259919970238</v>
+        <v>0</v>
       </c>
       <c s="1" r="N95" t="s">
         <v>58</v>
@@ -8959,11 +8801,9 @@
       <c s="1" r="K96" t="n">
         <v>370931.2324172762</v>
       </c>
-      <c s="1" r="L96" t="n">
-        <v>225046071.6682217</v>
-      </c>
+      <c s="1" r="L96" t="n"/>
       <c s="1" r="M96" t="n">
-        <v>0.9376919652842572</v>
+        <v>0</v>
       </c>
       <c s="1" r="N96" t="s">
         <v>58</v>
@@ -9037,11 +8877,9 @@
       <c s="1" r="K98" t="n">
         <v>241303.8651322868</v>
       </c>
-      <c s="1" r="L98" t="n">
-        <v>25667007.14285714</v>
-      </c>
+      <c s="1" r="L98" t="n"/>
       <c s="1" r="M98" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c s="1" r="N98" t="s">
         <v>58</v>
@@ -9081,11 +8919,9 @@
       <c s="1" r="K99" t="n">
         <v>214002.9442863787</v>
       </c>
-      <c s="1" r="L99" t="n">
-        <v>199730154.8199323</v>
-      </c>
+      <c s="1" r="L99" t="n"/>
       <c s="1" r="M99" t="n">
-        <v>0.8322089784163846</v>
+        <v>0</v>
       </c>
       <c s="1" r="N99" t="s">
         <v>58</v>
@@ -9125,11 +8961,9 @@
       <c s="1" r="K100" t="n">
         <v>576861.6943555231</v>
       </c>
-      <c s="1" r="L100" t="n">
-        <v>224374789.2034593</v>
-      </c>
+      <c s="1" r="L100" t="n"/>
       <c s="1" r="M100" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c s="1" r="N100" t="s">
         <v>58</v>
@@ -9203,11 +9037,9 @@
       <c s="1" r="K102" t="n">
         <v>267528.5670446628</v>
       </c>
-      <c s="1" r="L102" t="n">
-        <v>52637383.62761346</v>
-      </c>
+      <c s="1" r="L102" t="n"/>
       <c s="1" r="M102" t="n">
-        <v>0.655</v>
+        <v>0</v>
       </c>
       <c s="1" r="N102" t="s">
         <v>58</v>
@@ -9247,11 +9079,9 @@
       <c s="1" r="K103" t="n">
         <v>51597.66806918682</v>
       </c>
-      <c s="1" r="L103" t="n">
-        <v>2902371.428571428</v>
-      </c>
+      <c s="1" r="L103" t="n"/>
       <c s="1" r="M103" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c s="1" r="N103" t="s">
         <v>56</v>
@@ -9291,11 +9121,9 @@
       <c s="1" r="K104" t="n">
         <v>421003.826016726</v>
       </c>
-      <c s="1" r="L104" t="n">
-        <v>173134801.0261143</v>
-      </c>
+      <c s="1" r="L104" t="n"/>
       <c s="1" r="M104" t="n">
-        <v>0.805</v>
+        <v>0</v>
       </c>
       <c s="1" r="N104" t="s">
         <v>58</v>
@@ -9335,11 +9163,9 @@
       <c s="1" r="K105" t="n">
         <v>278416.6170920504</v>
       </c>
-      <c s="1" r="L105" t="n">
-        <v>345090335.6232584</v>
-      </c>
+      <c s="1" r="L105" t="n"/>
       <c s="1" r="M105" t="n">
-        <v>1.437876398430243</v>
+        <v>0</v>
       </c>
       <c s="1" r="N105" t="s">
         <v>58</v>
@@ -9379,11 +9205,9 @@
       <c s="1" r="K106" t="n">
         <v>312896.1987745818</v>
       </c>
-      <c s="1" r="L106" t="n">
-        <v>79678783.13255018</v>
-      </c>
+      <c s="1" r="L106" t="n"/>
       <c s="1" r="M106" t="n">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c s="1" r="N106" t="s">
         <v>58</v>
@@ -9423,11 +9247,9 @@
       <c s="1" r="K107" t="n">
         <v>371811.0787158324</v>
       </c>
-      <c s="1" r="L107" t="n">
-        <v>45639999.99999999</v>
-      </c>
+      <c s="1" r="L107" t="n"/>
       <c s="1" r="M107" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c s="1" r="N107" t="s">
         <v>58</v>
@@ -9501,11 +9323,9 @@
       <c s="1" r="K109" t="n">
         <v>425184.5343178023</v>
       </c>
-      <c s="1" r="L109" t="n">
-        <v>156723357.1428571</v>
-      </c>
+      <c s="1" r="L109" t="n"/>
       <c s="1" r="M109" t="n">
-        <v>0.845</v>
+        <v>0</v>
       </c>
       <c s="1" r="N109" t="s">
         <v>58</v>
@@ -9579,11 +9399,9 @@
       <c s="1" r="K111" t="n">
         <v>303429.0633793533</v>
       </c>
-      <c s="1" r="L111" t="n">
-        <v>30756209.52380953</v>
-      </c>
+      <c s="1" r="L111" t="n"/>
       <c s="1" r="M111" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N111" t="s">
         <v>58</v>
@@ -9623,11 +9441,9 @@
       <c s="1" r="K112" t="n">
         <v>556191.9621589663</v>
       </c>
-      <c s="1" r="L112" t="n">
-        <v>653051297.1140116</v>
-      </c>
+      <c s="1" r="L112" t="n"/>
       <c s="1" r="M112" t="n">
-        <v>2.721047071308382</v>
+        <v>0</v>
       </c>
       <c s="1" r="N112" t="s">
         <v>58</v>
@@ -9667,11 +9483,9 @@
       <c s="1" r="K113" t="n">
         <v>309288.6479018785</v>
       </c>
-      <c s="1" r="L113" t="n">
-        <v>424111618.9261532</v>
-      </c>
+      <c s="1" r="L113" t="n"/>
       <c s="1" r="M113" t="n">
-        <v>1.767131745525638</v>
+        <v>0</v>
       </c>
       <c s="1" r="N113" t="s">
         <v>58</v>
@@ -9711,11 +9525,9 @@
       <c s="1" r="K114" t="n">
         <v>381016.7997604894</v>
       </c>
-      <c s="1" r="L114" t="n">
-        <v>175145666.6666667</v>
-      </c>
+      <c s="1" r="L114" t="n"/>
       <c s="1" r="M114" t="n">
-        <v>0.7297736111111111</v>
+        <v>0</v>
       </c>
       <c s="1" r="N114" t="s">
         <v>58</v>
@@ -9755,11 +9567,9 @@
       <c s="1" r="K115" t="n">
         <v>419493.4508132619</v>
       </c>
-      <c s="1" r="L115" t="n">
-        <v>204053851.7439781</v>
-      </c>
+      <c s="1" r="L115" t="n"/>
       <c s="1" r="M115" t="n">
-        <v>0.8502243822665752</v>
+        <v>0</v>
       </c>
       <c s="1" r="N115" t="s">
         <v>58</v>
@@ -9799,11 +9609,9 @@
       <c s="1" r="K116" t="n">
         <v>179147.3676284697</v>
       </c>
-      <c s="1" r="L116" t="n">
-        <v>105852571.3842244</v>
-      </c>
+      <c s="1" r="L116" t="n"/>
       <c s="1" r="M116" t="n">
-        <v>0.4410523807676016</v>
+        <v>0</v>
       </c>
       <c s="1" r="N116" t="s">
         <v>58</v>
@@ -9843,11 +9651,9 @@
       <c s="1" r="K117" t="n">
         <v>443573.9759181578</v>
       </c>
-      <c s="1" r="L117" t="n">
-        <v>82584016.58601661</v>
-      </c>
+      <c s="1" r="L117" t="n"/>
       <c s="1" r="M117" t="n">
-        <v>1.105</v>
+        <v>0</v>
       </c>
       <c s="1" r="N117" t="s">
         <v>58</v>
@@ -9887,11 +9693,9 @@
       <c s="1" r="K118" t="n">
         <v>189882.7921818176</v>
       </c>
-      <c s="1" r="L118" t="n">
-        <v>15605142.85714286</v>
-      </c>
+      <c s="1" r="L118" t="n"/>
       <c s="1" r="M118" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c s="1" r="N118" t="s">
         <v>56</v>
@@ -9931,11 +9735,9 @@
       <c s="1" r="K119" t="n">
         <v>179847.9835661655</v>
       </c>
-      <c s="1" r="L119" t="n">
-        <v>17800457.14285715</v>
-      </c>
+      <c s="1" r="L119" t="n"/>
       <c s="1" r="M119" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N119" t="s">
         <v>56</v>
@@ -9975,11 +9777,9 @@
       <c s="1" r="K120" t="n">
         <v>326762.4872941463</v>
       </c>
-      <c s="1" r="L120" t="n">
-        <v>150430571.4285714</v>
-      </c>
+      <c s="1" r="L120" t="n"/>
       <c s="1" r="M120" t="n">
-        <v>0.6267940476190474</v>
+        <v>0</v>
       </c>
       <c s="1" r="N120" t="s">
         <v>58</v>
@@ -10019,11 +9819,9 @@
       <c s="1" r="K121" t="n">
         <v>306722.1053977961</v>
       </c>
-      <c s="1" r="L121" t="n">
-        <v>43532634.64070695</v>
-      </c>
+      <c s="1" r="L121" t="n"/>
       <c s="1" r="M121" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c s="1" r="N121" t="s">
         <v>58</v>
@@ -10063,11 +9861,9 @@
       <c s="1" r="K122" t="n">
         <v>263790.0824223961</v>
       </c>
-      <c s="1" r="L122" t="n">
-        <v>84643166.66666666</v>
-      </c>
+      <c s="1" r="L122" t="n"/>
       <c s="1" r="M122" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c s="1" r="N122" t="s">
         <v>58</v>
@@ -10107,11 +9903,9 @@
       <c s="1" r="K123" t="n">
         <v>146064.4393389447</v>
       </c>
-      <c s="1" r="L123" t="n">
-        <v>48966587.45769013</v>
-      </c>
+      <c s="1" r="L123" t="n"/>
       <c s="1" r="M123" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c s="1" r="N123" t="s">
         <v>58</v>
@@ -10151,11 +9945,9 @@
       <c s="1" r="K124" t="n">
         <v>260365.4517980871</v>
       </c>
-      <c s="1" r="L124" t="n">
-        <v>105779524.326381</v>
-      </c>
+      <c s="1" r="L124" t="n"/>
       <c s="1" r="M124" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="1" r="N124" t="s">
         <v>58</v>
@@ -10195,11 +9987,9 @@
       <c s="1" r="K125" t="n">
         <v>290297.4498430297</v>
       </c>
-      <c s="1" r="L125" t="n">
-        <v>146874321.4285714</v>
-      </c>
+      <c s="1" r="L125" t="n"/>
       <c s="1" r="M125" t="n">
-        <v>0.6119763392857143</v>
+        <v>0</v>
       </c>
       <c s="1" r="N125" t="s">
         <v>58</v>
@@ -10239,11 +10029,9 @@
       <c s="1" r="K126" t="n">
         <v>296131.9180922834</v>
       </c>
-      <c s="1" r="L126" t="n">
-        <v>268459000.268</v>
-      </c>
+      <c s="1" r="L126" t="n"/>
       <c s="1" r="M126" t="n">
-        <v>1.118579167783333</v>
+        <v>0</v>
       </c>
       <c s="1" r="N126" t="s">
         <v>58</v>
@@ -10283,11 +10071,9 @@
       <c s="1" r="K127" t="n">
         <v>266337.8068262406</v>
       </c>
-      <c s="1" r="L127" t="n">
-        <v>140725290.2559812</v>
-      </c>
+      <c s="1" r="L127" t="n"/>
       <c s="1" r="M127" t="n">
-        <v>0.5863553760665883</v>
+        <v>0</v>
       </c>
       <c s="1" r="N127" t="s">
         <v>58</v>
@@ -10327,11 +10113,9 @@
       <c s="1" r="K128" t="n">
         <v>259973.5362677187</v>
       </c>
-      <c s="1" r="L128" t="n">
-        <v>122038749.0614091</v>
-      </c>
+      <c s="1" r="L128" t="n"/>
       <c s="1" r="M128" t="n">
-        <v>0.5084947877558714</v>
+        <v>0</v>
       </c>
       <c s="1" r="N128" t="s">
         <v>58</v>
@@ -10405,11 +10189,9 @@
       <c s="1" r="K130" t="n">
         <v>323823.7379349318</v>
       </c>
-      <c s="1" r="L130" t="n">
-        <v>242820600</v>
-      </c>
+      <c s="1" r="L130" t="n"/>
       <c s="1" r="M130" t="n">
-        <v>1.0117525</v>
+        <v>0</v>
       </c>
       <c s="1" r="N130" t="s">
         <v>58</v>
@@ -10449,11 +10231,9 @@
       <c s="1" r="K131" t="n">
         <v>414001.1890811727</v>
       </c>
-      <c s="1" r="L131" t="n">
-        <v>295590600</v>
-      </c>
+      <c s="1" r="L131" t="n"/>
       <c s="1" r="M131" t="n">
-        <v>1.2316275</v>
+        <v>0</v>
       </c>
       <c s="1" r="N131" t="s">
         <v>58</v>
@@ -10493,11 +10273,9 @@
       <c s="1" r="K132" t="n">
         <v>374211.8698281255</v>
       </c>
-      <c s="1" r="L132" t="n">
-        <v>60230392.85714286</v>
-      </c>
+      <c s="1" r="L132" t="n"/>
       <c s="1" r="M132" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c s="1" r="N132" t="s">
         <v>58</v>
@@ -10537,11 +10315,9 @@
       <c s="1" r="K133" t="n">
         <v>312107.5536118971</v>
       </c>
-      <c s="1" r="L133" t="n">
-        <v>182230751.675</v>
-      </c>
+      <c s="1" r="L133" t="n"/>
       <c s="1" r="M133" t="n">
-        <v>0.7592947986458333</v>
+        <v>0</v>
       </c>
       <c s="1" r="N133" t="s">
         <v>58</v>
@@ -10581,11 +10357,9 @@
       <c s="1" r="K134" t="n">
         <v>140311.7592059883</v>
       </c>
-      <c s="1" r="L134" t="n">
-        <v>13571634.22021605</v>
-      </c>
+      <c s="1" r="L134" t="n"/>
       <c s="1" r="M134" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c s="1" r="N134" t="s">
         <v>56</v>
@@ -10625,11 +10399,9 @@
       <c s="1" r="K135" t="n">
         <v>686173.159902608</v>
       </c>
-      <c s="1" r="L135" t="n">
-        <v>916549231.5537932</v>
-      </c>
+      <c s="1" r="L135" t="n"/>
       <c s="1" r="M135" t="n">
-        <v>3.818955131474138</v>
+        <v>0</v>
       </c>
       <c s="1" r="N135" t="s">
         <v>58</v>
@@ -10669,11 +10441,9 @@
       <c s="1" r="K136" t="n">
         <v>228440.9685203675</v>
       </c>
-      <c s="1" r="L136" t="n">
-        <v>170916315.0694643</v>
-      </c>
+      <c s="1" r="L136" t="n"/>
       <c s="1" r="M136" t="n">
-        <v>0.7121513127894347</v>
+        <v>0</v>
       </c>
       <c s="1" r="N136" t="s">
         <v>58</v>
@@ -10713,11 +10483,9 @@
       <c s="1" r="K137" t="n">
         <v>251241.359975369</v>
       </c>
-      <c s="1" r="L137" t="n">
-        <v>41384571.42857143</v>
-      </c>
+      <c s="1" r="L137" t="n"/>
       <c s="1" r="M137" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c s="1" r="N137" t="s">
         <v>58</v>
@@ -10757,11 +10525,9 @@
       <c s="1" r="K138" t="n">
         <v>204109.5971537351</v>
       </c>
-      <c s="1" r="L138" t="n">
-        <v>49926130.47619048</v>
-      </c>
+      <c s="1" r="L138" t="n"/>
       <c s="1" r="M138" t="n">
-        <v>0.466</v>
+        <v>0</v>
       </c>
       <c s="1" r="N138" t="s">
         <v>58</v>
@@ -10801,11 +10567,9 @@
       <c s="1" r="K139" t="n">
         <v>89836.95854357102</v>
       </c>
-      <c s="1" r="L139" t="n">
-        <v>5993571.428571429</v>
-      </c>
+      <c s="1" r="L139" t="n"/>
       <c s="1" r="M139" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c s="1" r="N139" t="s">
         <v>56</v>
@@ -10845,11 +10609,9 @@
       <c s="1" r="K140" t="n">
         <v>325635.9252445145</v>
       </c>
-      <c s="1" r="L140" t="n">
-        <v>85975369.28625982</v>
-      </c>
+      <c s="1" r="L140" t="n"/>
       <c s="1" r="M140" t="n">
-        <v>0.725</v>
+        <v>0</v>
       </c>
       <c s="1" r="N140" t="s">
         <v>58</v>
@@ -10923,11 +10685,9 @@
       <c s="1" r="K142" t="n">
         <v>594800.4862613187</v>
       </c>
-      <c s="1" r="L142" t="n">
-        <v>536982612.4439523</v>
-      </c>
+      <c s="1" r="L142" t="n"/>
       <c s="1" r="M142" t="n">
-        <v>2.237427551849801</v>
+        <v>0</v>
       </c>
       <c s="1" r="N142" t="s">
         <v>58</v>
@@ -10967,11 +10727,9 @@
       <c s="1" r="K143" t="n">
         <v>460267.0138549329</v>
       </c>
-      <c s="1" r="L143" t="n">
-        <v>54993176.19047619</v>
-      </c>
+      <c s="1" r="L143" t="n"/>
       <c s="1" r="M143" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c s="1" r="N143" t="s">
         <v>58</v>
@@ -11011,11 +10769,9 @@
       <c s="1" r="K144" t="n">
         <v>322294.2623429032</v>
       </c>
-      <c s="1" r="L144" t="n">
-        <v>303815570.9737282</v>
-      </c>
+      <c s="1" r="L144" t="n"/>
       <c s="1" r="M144" t="n">
-        <v>1.265898212390534</v>
+        <v>0</v>
       </c>
       <c s="1" r="N144" t="s">
         <v>58</v>
@@ -11123,11 +10879,9 @@
       <c s="1" r="K147" t="n">
         <v>304646.0252165484</v>
       </c>
-      <c s="1" r="L147" t="n">
-        <v>30714016.66666666</v>
-      </c>
+      <c s="1" r="L147" t="n"/>
       <c s="1" r="M147" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c s="1" r="N147" t="s">
         <v>58</v>
@@ -16599,11 +16353,9 @@
       <c s="1" r="K2" t="n">
         <v>574634.4697253573</v>
       </c>
-      <c s="1" r="L2" t="n">
-        <v>537224436.8500453</v>
-      </c>
+      <c s="1" r="L2" t="n"/>
       <c s="1" r="M2" t="n">
-        <v>2.238435153541856</v>
+        <v>0</v>
       </c>
       <c s="1" r="N2" t="s">
         <v>58</v>
@@ -16643,11 +16395,9 @@
       <c s="1" r="K3" t="n">
         <v>321925.4810160292</v>
       </c>
-      <c s="1" r="L3" t="n">
-        <v>835469373.8046778</v>
-      </c>
+      <c s="1" r="L3" t="n"/>
       <c s="1" r="M3" t="n">
-        <v>3.481122390852824</v>
+        <v>0</v>
       </c>
       <c s="1" r="N3" t="s">
         <v>58</v>
@@ -16687,11 +16437,9 @@
       <c s="1" r="K4" t="n">
         <v>743613.747736144</v>
       </c>
-      <c s="1" r="L4" t="n">
-        <v>1150548960.37307</v>
-      </c>
+      <c s="1" r="L4" t="n"/>
       <c s="1" r="M4" t="n">
-        <v>4.793954001554459</v>
+        <v>0</v>
       </c>
       <c s="1" r="N4" t="s">
         <v>58</v>
@@ -16731,11 +16479,9 @@
       <c s="1" r="K5" t="n">
         <v>258251.3036907116</v>
       </c>
-      <c s="1" r="L5" t="n">
-        <v>452875000.5385446</v>
-      </c>
+      <c s="1" r="L5" t="n"/>
       <c s="1" r="M5" t="n">
-        <v>1.886979168910603</v>
+        <v>0</v>
       </c>
       <c s="1" r="N5" t="s">
         <v>58</v>
@@ -16775,11 +16521,9 @@
       <c s="1" r="K6" t="n">
         <v>613872.1437155906</v>
       </c>
-      <c s="1" r="L6" t="n">
-        <v>380087117.1146716</v>
-      </c>
+      <c s="1" r="L6" t="n"/>
       <c s="1" r="M6" t="n">
-        <v>1.583696321311132</v>
+        <v>0</v>
       </c>
       <c s="1" r="N6" t="s">
         <v>58</v>
@@ -16819,11 +16563,9 @@
       <c s="1" r="K7" t="n">
         <v>944822.6660061121</v>
       </c>
-      <c s="1" r="L7" t="n">
-        <v>1573953975.623989</v>
-      </c>
+      <c s="1" r="L7" t="n"/>
       <c s="1" r="M7" t="n">
-        <v>6.558141565099953</v>
+        <v>0</v>
       </c>
       <c s="1" r="N7" t="s">
         <v>58</v>
@@ -16863,11 +16605,9 @@
       <c s="1" r="K8" t="n">
         <v>697006.7926090576</v>
       </c>
-      <c s="1" r="L8" t="n">
-        <v>207808647.1646924</v>
-      </c>
+      <c s="1" r="L8" t="n"/>
       <c s="1" r="M8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c s="1" r="N8" t="s">
         <v>58</v>
@@ -16907,11 +16647,9 @@
       <c s="1" r="K9" t="n">
         <v>410023.1219912093</v>
       </c>
-      <c s="1" r="L9" t="n">
-        <v>390724403.5152215</v>
-      </c>
+      <c s="1" r="L9" t="n"/>
       <c s="1" r="M9" t="n">
-        <v>1.62801834798009</v>
+        <v>0</v>
       </c>
       <c s="1" r="N9" t="s">
         <v>58</v>
@@ -16951,11 +16689,9 @@
       <c s="1" r="K10" t="n">
         <v>499984.0687994263</v>
       </c>
-      <c s="1" r="L10" t="n">
-        <v>144535795.2710628</v>
-      </c>
+      <c s="1" r="L10" t="n"/>
       <c s="1" r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c s="1" r="N10" t="s">
         <v>58</v>
@@ -16995,11 +16731,9 @@
       <c s="1" r="K11" t="n">
         <v>1528695.796016241</v>
       </c>
-      <c s="1" r="L11" t="n">
-        <v>2092885686.718093</v>
-      </c>
+      <c s="1" r="L11" t="n"/>
       <c s="1" r="M11" t="n">
-        <v>8.720357027992055</v>
+        <v>0</v>
       </c>
       <c s="1" r="N11" t="s">
         <v>58</v>
@@ -17039,11 +16773,9 @@
       <c s="1" r="K12" t="n">
         <v>261631.9778594575</v>
       </c>
-      <c s="1" r="L12" t="n">
-        <v>294196604.9370926</v>
-      </c>
+      <c s="1" r="L12" t="n"/>
       <c s="1" r="M12" t="n">
-        <v>1.225819187237886</v>
+        <v>0</v>
       </c>
       <c s="1" r="N12" t="s">
         <v>58</v>
@@ -17083,11 +16815,9 @@
       <c s="1" r="K13" t="n">
         <v>200457.0280638973</v>
       </c>
-      <c s="1" r="L13" t="n">
-        <v>68020456.99563764</v>
-      </c>
+      <c s="1" r="L13" t="n"/>
       <c s="1" r="M13" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c s="1" r="N13" t="s">
         <v>58</v>
@@ -17127,11 +16857,9 @@
       <c s="1" r="K14" t="n">
         <v>592425.7822304677</v>
       </c>
-      <c s="1" r="L14" t="n">
-        <v>1449711006.052581</v>
-      </c>
+      <c s="1" r="L14" t="n"/>
       <c s="1" r="M14" t="n">
-        <v>6.040462525219086</v>
+        <v>0</v>
       </c>
       <c s="1" r="N14" t="s">
         <v>58</v>
@@ -17171,11 +16899,9 @@
       <c s="1" r="K15" t="n">
         <v>759813.4181095364</v>
       </c>
-      <c s="1" r="L15" t="n">
-        <v>999532293.9450097</v>
-      </c>
+      <c s="1" r="L15" t="n"/>
       <c s="1" r="M15" t="n">
-        <v>4.16471789143754</v>
+        <v>0</v>
       </c>
       <c s="1" r="N15" t="s">
         <v>58</v>
@@ -17249,11 +16975,9 @@
       <c s="1" r="K17" t="n">
         <v>1159225.335100459</v>
       </c>
-      <c s="1" r="L17" t="n">
-        <v>878126433.4851732</v>
-      </c>
+      <c s="1" r="L17" t="n"/>
       <c s="1" r="M17" t="n">
-        <v>3.658860139521555</v>
+        <v>0</v>
       </c>
       <c s="1" r="N17" t="s">
         <v>58</v>
@@ -17293,11 +17017,9 @@
       <c s="1" r="K18" t="n">
         <v>849538.0991798762</v>
       </c>
-      <c s="1" r="L18" t="n">
-        <v>635284324.6778327</v>
-      </c>
+      <c s="1" r="L18" t="n"/>
       <c s="1" r="M18" t="n">
-        <v>2.647018019490969</v>
+        <v>0</v>
       </c>
       <c s="1" r="N18" t="s">
         <v>58</v>
@@ -17337,11 +17059,9 @@
       <c s="1" r="K19" t="n">
         <v>586217.5231535479</v>
       </c>
-      <c s="1" r="L19" t="n">
-        <v>176089478.6536772</v>
-      </c>
+      <c s="1" r="L19" t="n"/>
       <c s="1" r="M19" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N19" t="s">
         <v>58</v>
@@ -17381,11 +17101,9 @@
       <c s="1" r="K20" t="n">
         <v>930381.2671279947</v>
       </c>
-      <c s="1" r="L20" t="n">
-        <v>1637265562.408588</v>
-      </c>
+      <c s="1" r="L20" t="n"/>
       <c s="1" r="M20" t="n">
-        <v>6.821939843369119</v>
+        <v>0</v>
       </c>
       <c s="1" r="N20" t="s">
         <v>58</v>
@@ -17425,11 +17143,9 @@
       <c s="1" r="K21" t="n">
         <v>449198.9869085859</v>
       </c>
-      <c s="1" r="L21" t="n">
-        <v>729227677.9387966</v>
-      </c>
+      <c s="1" r="L21" t="n"/>
       <c s="1" r="M21" t="n">
-        <v>3.03844865807832</v>
+        <v>0</v>
       </c>
       <c s="1" r="N21" t="s">
         <v>58</v>
@@ -17469,11 +17185,9 @@
       <c s="1" r="K22" t="n">
         <v>563299.6964464926</v>
       </c>
-      <c s="1" r="L22" t="n">
-        <v>255433452.6699406</v>
-      </c>
+      <c s="1" r="L22" t="n"/>
       <c s="1" r="M22" t="n">
-        <v>1.064306052791419</v>
+        <v>0</v>
       </c>
       <c s="1" r="N22" t="s">
         <v>58</v>
@@ -17513,11 +17227,9 @@
       <c s="1" r="K23" t="n">
         <v>1260174.980435255</v>
       </c>
-      <c s="1" r="L23" t="n">
-        <v>2478418703.13426</v>
-      </c>
+      <c s="1" r="L23" t="n"/>
       <c s="1" r="M23" t="n">
-        <v>10.32674459639275</v>
+        <v>0</v>
       </c>
       <c s="1" r="N23" t="s">
         <v>58</v>
@@ -17557,11 +17269,9 @@
       <c s="1" r="K24" t="n">
         <v>420982.2884996809</v>
       </c>
-      <c s="1" r="L24" t="n">
-        <v>615800853.0805365</v>
-      </c>
+      <c s="1" r="L24" t="n"/>
       <c s="1" r="M24" t="n">
-        <v>2.565836887835569</v>
+        <v>0</v>
       </c>
       <c s="1" r="N24" t="s">
         <v>58</v>
@@ -17601,11 +17311,9 @@
       <c s="1" r="K25" t="n">
         <v>419170.1411799494</v>
       </c>
-      <c s="1" r="L25" t="n">
-        <v>1216367795.175988</v>
-      </c>
+      <c s="1" r="L25" t="n"/>
       <c s="1" r="M25" t="n">
-        <v>5.068199146566618</v>
+        <v>0</v>
       </c>
       <c s="1" r="N25" t="s">
         <v>58</v>
@@ -17645,11 +17353,9 @@
       <c s="1" r="K26" t="n">
         <v>765729.6166151298</v>
       </c>
-      <c s="1" r="L26" t="n">
-        <v>356721194.3038064</v>
-      </c>
+      <c s="1" r="L26" t="n"/>
       <c s="1" r="M26" t="n">
-        <v>1.486338309599194</v>
+        <v>0</v>
       </c>
       <c s="1" r="N26" t="s">
         <v>58</v>
@@ -17689,11 +17395,9 @@
       <c s="1" r="K27" t="n">
         <v>250569.063935301</v>
       </c>
-      <c s="1" r="L27" t="n">
-        <v>50196579.01710138</v>
-      </c>
+      <c s="1" r="L27" t="n"/>
       <c s="1" r="M27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c s="1" r="N27" t="s">
         <v>58</v>
@@ -17733,11 +17437,9 @@
       <c s="1" r="K28" t="n">
         <v>145496.2059113641</v>
       </c>
-      <c s="1" r="L28" t="n">
-        <v>53184103.00751879</v>
-      </c>
+      <c s="1" r="L28" t="n"/>
       <c s="1" r="M28" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c s="1" r="N28" t="s">
         <v>58</v>
@@ -17777,11 +17479,9 @@
       <c s="1" r="K29" t="n">
         <v>189215.4498763689</v>
       </c>
-      <c s="1" r="L29" t="n">
-        <v>85355347.85443228</v>
-      </c>
+      <c s="1" r="L29" t="n"/>
       <c s="1" r="M29" t="n">
-        <v>0.3556472827268012</v>
+        <v>0</v>
       </c>
       <c s="1" r="N29" t="s">
         <v>58</v>
@@ -17855,11 +17555,9 @@
       <c s="1" r="K31" t="n">
         <v>454836.6411306266</v>
       </c>
-      <c s="1" r="L31" t="n">
-        <v>159380791.4264976</v>
-      </c>
+      <c s="1" r="L31" t="n"/>
       <c s="1" r="M31" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c s="1" r="N31" t="s">
         <v>58</v>
@@ -17899,11 +17597,9 @@
       <c s="1" r="K32" t="n">
         <v>59721.76293733889</v>
       </c>
-      <c s="1" r="L32" t="n">
-        <v>1546836.280556754</v>
-      </c>
+      <c s="1" r="L32" t="n"/>
       <c s="1" r="M32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N32" t="s">
         <v>56</v>
@@ -17943,11 +17639,9 @@
       <c s="1" r="K33" t="n">
         <v>282911.4598840364</v>
       </c>
-      <c s="1" r="L33" t="n">
-        <v>513512295.5619642</v>
-      </c>
+      <c s="1" r="L33" t="n"/>
       <c s="1" r="M33" t="n">
-        <v>2.139634564841517</v>
+        <v>0</v>
       </c>
       <c s="1" r="N33" t="s">
         <v>58</v>
@@ -17987,11 +17681,9 @@
       <c s="1" r="K34" t="n">
         <v>1289269.891512382</v>
       </c>
-      <c s="1" r="L34" t="n">
-        <v>3511460622.906536</v>
-      </c>
+      <c s="1" r="L34" t="n"/>
       <c s="1" r="M34" t="n">
-        <v>14.63108592877724</v>
+        <v>0</v>
       </c>
       <c s="1" r="N34" t="s">
         <v>58</v>
@@ -18031,11 +17723,9 @@
       <c s="1" r="K35" t="n">
         <v>255316.5833841455</v>
       </c>
-      <c s="1" r="L35" t="n">
-        <v>9909049.854744833</v>
-      </c>
+      <c s="1" r="L35" t="n"/>
       <c s="1" r="M35" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c s="1" r="N35" t="s">
         <v>56</v>
@@ -18075,11 +17765,9 @@
       <c s="1" r="K36" t="n">
         <v>194968.5529078789</v>
       </c>
-      <c s="1" r="L36" t="n">
-        <v>7765627.395948078</v>
-      </c>
+      <c s="1" r="L36" t="n"/>
       <c s="1" r="M36" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c s="1" r="N36" t="s">
         <v>56</v>
@@ -18119,11 +17807,9 @@
       <c s="1" r="K37" t="n">
         <v>1355739.592637878</v>
       </c>
-      <c s="1" r="L37" t="n">
-        <v>1661821837.279703</v>
-      </c>
+      <c s="1" r="L37" t="n"/>
       <c s="1" r="M37" t="n">
-        <v>6.924257655332097</v>
+        <v>0</v>
       </c>
       <c s="1" r="N37" t="s">
         <v>58</v>
@@ -18163,11 +17849,9 @@
       <c s="1" r="K38" t="n">
         <v>706233.5128290157</v>
       </c>
-      <c s="1" r="L38" t="n">
-        <v>1133424533.960344</v>
-      </c>
+      <c s="1" r="L38" t="n"/>
       <c s="1" r="M38" t="n">
-        <v>4.722602224834765</v>
+        <v>0</v>
       </c>
       <c s="1" r="N38" t="s">
         <v>58</v>
@@ -18241,11 +17925,9 @@
       <c s="1" r="K40" t="n">
         <v>437039.0360674541</v>
       </c>
-      <c s="1" r="L40" t="n">
-        <v>476899752.9796228</v>
-      </c>
+      <c s="1" r="L40" t="n"/>
       <c s="1" r="M40" t="n">
-        <v>1.987082304081762</v>
+        <v>0</v>
       </c>
       <c s="1" r="N40" t="s">
         <v>58</v>
@@ -18285,11 +17967,9 @@
       <c s="1" r="K41" t="n">
         <v>480883.389619571</v>
       </c>
-      <c s="1" r="L41" t="n">
-        <v>633705894.0379843</v>
-      </c>
+      <c s="1" r="L41" t="n"/>
       <c s="1" r="M41" t="n">
-        <v>2.640441225158268</v>
+        <v>0</v>
       </c>
       <c s="1" r="N41" t="s">
         <v>58</v>
@@ -18329,11 +18009,9 @@
       <c s="1" r="K42" t="n">
         <v>525567.3255461814</v>
       </c>
-      <c s="1" r="L42" t="n">
-        <v>870341537.233694</v>
-      </c>
+      <c s="1" r="L42" t="n"/>
       <c s="1" r="M42" t="n">
-        <v>3.626423071807058</v>
+        <v>0</v>
       </c>
       <c s="1" r="N42" t="s">
         <v>58</v>
@@ -18373,11 +18051,9 @@
       <c s="1" r="K43" t="n">
         <v>571891.2170545537</v>
       </c>
-      <c s="1" r="L43" t="n">
-        <v>447193658.0990706</v>
-      </c>
+      <c s="1" r="L43" t="n"/>
       <c s="1" r="M43" t="n">
-        <v>1.863306908746128</v>
+        <v>0</v>
       </c>
       <c s="1" r="N43" t="s">
         <v>58</v>
@@ -18417,11 +18093,9 @@
       <c s="1" r="K44" t="n">
         <v>696683.6806536136</v>
       </c>
-      <c s="1" r="L44" t="n">
-        <v>886652997.1333859</v>
-      </c>
+      <c s="1" r="L44" t="n"/>
       <c s="1" r="M44" t="n">
-        <v>3.694387488055775</v>
+        <v>0</v>
       </c>
       <c s="1" r="N44" t="s">
         <v>58</v>
@@ -18461,11 +18135,9 @@
       <c s="1" r="K45" t="n">
         <v>565887.1597327525</v>
       </c>
-      <c s="1" r="L45" t="n">
-        <v>647777446.7243403</v>
-      </c>
+      <c s="1" r="L45" t="n"/>
       <c s="1" r="M45" t="n">
-        <v>2.699072694684751</v>
+        <v>0</v>
       </c>
       <c s="1" r="N45" t="s">
         <v>58</v>
@@ -18505,11 +18177,9 @@
       <c s="1" r="K46" t="n">
         <v>784637.4764693158</v>
       </c>
-      <c s="1" r="L46" t="n">
-        <v>224792351.9212009</v>
-      </c>
+      <c s="1" r="L46" t="n"/>
       <c s="1" r="M46" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c s="1" r="N46" t="s">
         <v>58</v>
@@ -18549,11 +18219,9 @@
       <c s="1" r="K47" t="n">
         <v>178801.6754863364</v>
       </c>
-      <c s="1" r="L47" t="n">
-        <v>88322960.15185335</v>
-      </c>
+      <c s="1" r="L47" t="n"/>
       <c s="1" r="M47" t="n">
-        <v>0.3680123339660556</v>
+        <v>0</v>
       </c>
       <c s="1" r="N47" t="s">
         <v>58</v>
@@ -18593,11 +18261,9 @@
       <c s="1" r="K48" t="n">
         <v>363544.8414318306</v>
       </c>
-      <c s="1" r="L48" t="n">
-        <v>347094049.9112307</v>
-      </c>
+      <c s="1" r="L48" t="n"/>
       <c s="1" r="M48" t="n">
-        <v>1.446225207963462</v>
+        <v>0</v>
       </c>
       <c s="1" r="N48" t="s">
         <v>58</v>
@@ -18637,11 +18303,9 @@
       <c s="1" r="K49" t="n">
         <v>279112.875594242</v>
       </c>
-      <c s="1" r="L49" t="n">
-        <v>177075548.348321</v>
-      </c>
+      <c s="1" r="L49" t="n"/>
       <c s="1" r="M49" t="n">
-        <v>0.737814784784671</v>
+        <v>0</v>
       </c>
       <c s="1" r="N49" t="s">
         <v>58</v>
@@ -18681,11 +18345,9 @@
       <c s="1" r="K50" t="n">
         <v>469911.8986210067</v>
       </c>
-      <c s="1" r="L50" t="n">
-        <v>1552471649.452077</v>
-      </c>
+      <c s="1" r="L50" t="n"/>
       <c s="1" r="M50" t="n">
-        <v>6.468631872716989</v>
+        <v>0</v>
       </c>
       <c s="1" r="N50" t="s">
         <v>58</v>
@@ -18725,11 +18387,9 @@
       <c s="1" r="K51" t="n">
         <v>249841.2582760594</v>
       </c>
-      <c s="1" r="L51" t="n">
-        <v>399223781.6427073</v>
-      </c>
+      <c s="1" r="L51" t="n"/>
       <c s="1" r="M51" t="n">
-        <v>1.66343242351128</v>
+        <v>0</v>
       </c>
       <c s="1" r="N51" t="s">
         <v>58</v>
@@ -18769,11 +18429,9 @@
       <c s="1" r="K52" t="n">
         <v>345314.7544713485</v>
       </c>
-      <c s="1" r="L52" t="n">
-        <v>510843726.3070215</v>
-      </c>
+      <c s="1" r="L52" t="n"/>
       <c s="1" r="M52" t="n">
-        <v>2.128515526279256</v>
+        <v>0</v>
       </c>
       <c s="1" r="N52" t="s">
         <v>58</v>
@@ -18813,11 +18471,9 @@
       <c s="1" r="K53" t="n">
         <v>377247.3540687006</v>
       </c>
-      <c s="1" r="L53" t="n">
-        <v>319112325.0648135</v>
-      </c>
+      <c s="1" r="L53" t="n"/>
       <c s="1" r="M53" t="n">
-        <v>1.329634687770056</v>
+        <v>0</v>
       </c>
       <c s="1" r="N53" t="s">
         <v>58</v>
@@ -18857,11 +18513,9 @@
       <c s="1" r="K54" t="n">
         <v>967469.851901064</v>
       </c>
-      <c s="1" r="L54" t="n">
-        <v>167505023.6878971</v>
-      </c>
+      <c s="1" r="L54" t="n"/>
       <c s="1" r="M54" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c s="1" r="N54" t="s">
         <v>58</v>
@@ -18901,11 +18555,9 @@
       <c s="1" r="K55" t="n">
         <v>192655.2925840453</v>
       </c>
-      <c s="1" r="L55" t="n">
-        <v>217397643.7289772</v>
-      </c>
+      <c s="1" r="L55" t="n"/>
       <c s="1" r="M55" t="n">
-        <v>0.9058235155374048</v>
+        <v>0</v>
       </c>
       <c s="1" r="N55" t="s">
         <v>58</v>
@@ -18945,11 +18597,9 @@
       <c s="1" r="K56" t="n">
         <v>452273.2150722216</v>
       </c>
-      <c s="1" r="L56" t="n">
-        <v>195198306.6805627</v>
-      </c>
+      <c s="1" r="L56" t="n"/>
       <c s="1" r="M56" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c s="1" r="N56" t="s">
         <v>58</v>
@@ -18989,11 +18639,9 @@
       <c s="1" r="K57" t="n">
         <v>555438.7480319402</v>
       </c>
-      <c s="1" r="L57" t="n">
-        <v>912785340.6593421</v>
-      </c>
+      <c s="1" r="L57" t="n"/>
       <c s="1" r="M57" t="n">
-        <v>3.803272252747258</v>
+        <v>0</v>
       </c>
       <c s="1" r="N57" t="s">
         <v>58</v>
@@ -19033,11 +18681,9 @@
       <c s="1" r="K58" t="n">
         <v>674055.856311856</v>
       </c>
-      <c s="1" r="L58" t="n">
-        <v>1095228146.553048</v>
-      </c>
+      <c s="1" r="L58" t="n"/>
       <c s="1" r="M58" t="n">
-        <v>4.5634506106377</v>
+        <v>0</v>
       </c>
       <c s="1" r="N58" t="s">
         <v>58</v>
@@ -19077,11 +18723,9 @@
       <c s="1" r="K59" t="n">
         <v>627364.6812886458</v>
       </c>
-      <c s="1" r="L59" t="n">
-        <v>335868036.939862</v>
-      </c>
+      <c s="1" r="L59" t="n"/>
       <c s="1" r="M59" t="n">
-        <v>1.399450153916092</v>
+        <v>0</v>
       </c>
       <c s="1" r="N59" t="s">
         <v>58</v>
@@ -19121,11 +18765,9 @@
       <c s="1" r="K60" t="n">
         <v>464697.6423111426</v>
       </c>
-      <c s="1" r="L60" t="n">
-        <v>667738714.1804768</v>
-      </c>
+      <c s="1" r="L60" t="n"/>
       <c s="1" r="M60" t="n">
-        <v>2.782244642418653</v>
+        <v>0</v>
       </c>
       <c s="1" r="N60" t="s">
         <v>58</v>
@@ -19165,11 +18807,9 @@
       <c s="1" r="K61" t="n">
         <v>498224.5782173623</v>
       </c>
-      <c s="1" r="L61" t="n">
-        <v>96717244.93540335</v>
-      </c>
+      <c s="1" r="L61" t="n"/>
       <c s="1" r="M61" t="n">
-        <v>1.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N61" t="s">
         <v>58</v>
@@ -19209,11 +18849,9 @@
       <c s="1" r="K62" t="n">
         <v>349778.0440632326</v>
       </c>
-      <c s="1" r="L62" t="n">
-        <v>295805375.5976872</v>
-      </c>
+      <c s="1" r="L62" t="n"/>
       <c s="1" r="M62" t="n">
-        <v>1.232522398323697</v>
+        <v>0</v>
       </c>
       <c s="1" r="N62" t="s">
         <v>58</v>
@@ -19253,11 +18891,9 @@
       <c s="1" r="K63" t="n">
         <v>294697.211910884</v>
       </c>
-      <c s="1" r="L63" t="n">
-        <v>280279043.1672367</v>
-      </c>
+      <c s="1" r="L63" t="n"/>
       <c s="1" r="M63" t="n">
-        <v>1.167829346530153</v>
+        <v>0</v>
       </c>
       <c s="1" r="N63" t="s">
         <v>58</v>
@@ -19331,11 +18967,9 @@
       <c s="1" r="K65" t="n">
         <v>489515.1015043523</v>
       </c>
-      <c s="1" r="L65" t="n">
-        <v>377678120.1120505</v>
-      </c>
+      <c s="1" r="L65" t="n"/>
       <c s="1" r="M65" t="n">
-        <v>1.573658833800211</v>
+        <v>0</v>
       </c>
       <c s="1" r="N65" t="s">
         <v>58</v>
@@ -19375,11 +19009,9 @@
       <c s="1" r="K66" t="n">
         <v>899078.2047825416</v>
       </c>
-      <c s="1" r="L66" t="n">
-        <v>161458981.3336699</v>
-      </c>
+      <c s="1" r="L66" t="n"/>
       <c s="1" r="M66" t="n">
-        <v>2.265</v>
+        <v>0</v>
       </c>
       <c s="1" r="N66" t="s">
         <v>58</v>
@@ -19419,11 +19051,9 @@
       <c s="1" r="K67" t="n">
         <v>783805.9322071044</v>
       </c>
-      <c s="1" r="L67" t="n">
-        <v>98255242.62578245</v>
-      </c>
+      <c s="1" r="L67" t="n"/>
       <c s="1" r="M67" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c s="1" r="N67" t="s">
         <v>58</v>
@@ -19463,11 +19093,9 @@
       <c s="1" r="K68" t="n">
         <v>296080.5168188249</v>
       </c>
-      <c s="1" r="L68" t="n">
-        <v>171073268.4397108</v>
-      </c>
+      <c s="1" r="L68" t="n"/>
       <c s="1" r="M68" t="n">
-        <v>0.7128052851654617</v>
+        <v>0</v>
       </c>
       <c s="1" r="N68" t="s">
         <v>58</v>
@@ -19507,11 +19135,9 @@
       <c s="1" r="K69" t="n">
         <v>658910.3860576071</v>
       </c>
-      <c s="1" r="L69" t="n">
-        <v>149965188.3429972</v>
-      </c>
+      <c s="1" r="L69" t="n"/>
       <c s="1" r="M69" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N69" t="s">
         <v>58</v>
@@ -19551,11 +19177,9 @@
       <c s="1" r="K70" t="n">
         <v>700168.2725671906</v>
       </c>
-      <c s="1" r="L70" t="n">
-        <v>865228659.9895686</v>
-      </c>
+      <c s="1" r="L70" t="n"/>
       <c s="1" r="M70" t="n">
-        <v>3.605119416623203</v>
+        <v>0</v>
       </c>
       <c s="1" r="N70" t="s">
         <v>58</v>
@@ -19595,11 +19219,9 @@
       <c s="1" r="K71" t="n">
         <v>525687.6937881643</v>
       </c>
-      <c s="1" r="L71" t="n">
-        <v>222436512.5790146</v>
-      </c>
+      <c s="1" r="L71" t="n"/>
       <c s="1" r="M71" t="n">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c s="1" r="N71" t="s">
         <v>58</v>
@@ -19639,11 +19261,9 @@
       <c s="1" r="K72" t="n">
         <v>347147.6883946971</v>
       </c>
-      <c s="1" r="L72" t="n">
-        <v>165061927.7421155</v>
-      </c>
+      <c s="1" r="L72" t="n"/>
       <c s="1" r="M72" t="n">
-        <v>0.6877580322588144</v>
+        <v>0</v>
       </c>
       <c s="1" r="N72" t="s">
         <v>58</v>
@@ -19683,11 +19303,9 @@
       <c s="1" r="K73" t="n">
         <v>181090.1676415492</v>
       </c>
-      <c s="1" r="L73" t="n">
-        <v>72252851.66257006</v>
-      </c>
+      <c s="1" r="L73" t="n"/>
       <c s="1" r="M73" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c s="1" r="N73" t="s">
         <v>58</v>
@@ -19727,11 +19345,9 @@
       <c s="1" r="K74" t="n">
         <v>113024.9634025453</v>
       </c>
-      <c s="1" r="L74" t="n">
-        <v>41461528.19548872</v>
-      </c>
+      <c s="1" r="L74" t="n"/>
       <c s="1" r="M74" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N74" t="s">
         <v>58</v>
@@ -19771,11 +19387,9 @@
       <c s="1" r="K75" t="n">
         <v>503788.7310197609</v>
       </c>
-      <c s="1" r="L75" t="n">
-        <v>587333647.3362962</v>
-      </c>
+      <c s="1" r="L75" t="n"/>
       <c s="1" r="M75" t="n">
-        <v>2.4472235305679</v>
+        <v>0</v>
       </c>
       <c s="1" r="N75" t="s">
         <v>58</v>
@@ -19815,11 +19429,9 @@
       <c s="1" r="K76" t="n">
         <v>1059187.399899995</v>
       </c>
-      <c s="1" r="L76" t="n">
-        <v>1650294986.571416</v>
-      </c>
+      <c s="1" r="L76" t="n"/>
       <c s="1" r="M76" t="n">
-        <v>6.876229110714233</v>
+        <v>0</v>
       </c>
       <c s="1" r="N76" t="s">
         <v>58</v>
@@ -19859,11 +19471,9 @@
       <c s="1" r="K77" t="n">
         <v>413685.8776111629</v>
       </c>
-      <c s="1" r="L77" t="n">
-        <v>640353589.4867249</v>
-      </c>
+      <c s="1" r="L77" t="n"/>
       <c s="1" r="M77" t="n">
-        <v>2.668139956194687</v>
+        <v>0</v>
       </c>
       <c s="1" r="N77" t="s">
         <v>58</v>
@@ -19903,11 +19513,9 @@
       <c s="1" r="K78" t="n">
         <v>182000.2953196104</v>
       </c>
-      <c s="1" r="L78" t="n">
-        <v>480315.7688676387</v>
-      </c>
+      <c s="1" r="L78" t="n"/>
       <c s="1" r="M78" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c s="1" r="N78" t="s">
         <v>56</v>
@@ -19981,11 +19589,9 @@
       <c s="1" r="K80" t="n">
         <v>1320083.676153698</v>
       </c>
-      <c s="1" r="L80" t="n">
-        <v>2026908242.824694</v>
-      </c>
+      <c s="1" r="L80" t="n"/>
       <c s="1" r="M80" t="n">
-        <v>8.44545101176956</v>
+        <v>0</v>
       </c>
       <c s="1" r="N80" t="s">
         <v>58</v>
@@ -20025,11 +19631,9 @@
       <c s="1" r="K81" t="n">
         <v>134856.9784009998</v>
       </c>
-      <c s="1" r="L81" t="n">
-        <v>71621660.33103204</v>
-      </c>
+      <c s="1" r="L81" t="n"/>
       <c s="1" r="M81" t="n">
-        <v>0.2984235847126335</v>
+        <v>0</v>
       </c>
       <c s="1" r="N81" t="s">
         <v>58</v>
@@ -20069,11 +19673,9 @@
       <c s="1" r="K82" t="n">
         <v>266909.9209674787</v>
       </c>
-      <c s="1" r="L82" t="n">
-        <v>60392921.02858199</v>
-      </c>
+      <c s="1" r="L82" t="n"/>
       <c s="1" r="M82" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c s="1" r="N82" t="s">
         <v>58</v>
@@ -20113,11 +19715,9 @@
       <c s="1" r="K83" t="n">
         <v>549060.7685322188</v>
       </c>
-      <c s="1" r="L83" t="n">
-        <v>369643939.8370136</v>
-      </c>
+      <c s="1" r="L83" t="n"/>
       <c s="1" r="M83" t="n">
-        <v>1.540183082654223</v>
+        <v>0</v>
       </c>
       <c s="1" r="N83" t="s">
         <v>58</v>
@@ -20157,11 +19757,9 @@
       <c s="1" r="K84" t="n">
         <v>633212.4053061965</v>
       </c>
-      <c s="1" r="L84" t="n">
-        <v>718114860.1367459</v>
-      </c>
+      <c s="1" r="L84" t="n"/>
       <c s="1" r="M84" t="n">
-        <v>2.992145250569775</v>
+        <v>0</v>
       </c>
       <c s="1" r="N84" t="s">
         <v>58</v>
@@ -20201,11 +19799,9 @@
       <c s="1" r="K85" t="n">
         <v>1228919.745408016</v>
       </c>
-      <c s="1" r="L85" t="n">
-        <v>2452117278.881083</v>
-      </c>
+      <c s="1" r="L85" t="n"/>
       <c s="1" r="M85" t="n">
-        <v>10.21715532867118</v>
+        <v>0</v>
       </c>
       <c s="1" r="N85" t="s">
         <v>58</v>
@@ -20245,11 +19841,9 @@
       <c s="1" r="K86" t="n">
         <v>620740.1307478836</v>
       </c>
-      <c s="1" r="L86" t="n">
-        <v>496781285.9892048</v>
-      </c>
+      <c s="1" r="L86" t="n"/>
       <c s="1" r="M86" t="n">
-        <v>2.06992202495502</v>
+        <v>0</v>
       </c>
       <c s="1" r="N86" t="s">
         <v>58</v>
@@ -20289,11 +19883,9 @@
       <c s="1" r="K87" t="n">
         <v>384796.2189656587</v>
       </c>
-      <c s="1" r="L87" t="n">
-        <v>489721132.1376259</v>
-      </c>
+      <c s="1" r="L87" t="n"/>
       <c s="1" r="M87" t="n">
-        <v>2.040504717240108</v>
+        <v>0</v>
       </c>
       <c s="1" r="N87" t="s">
         <v>58</v>
@@ -20333,11 +19925,9 @@
       <c s="1" r="K88" t="n">
         <v>235465.6933339935</v>
       </c>
-      <c s="1" r="L88" t="n">
-        <v>133915345.8479641</v>
-      </c>
+      <c s="1" r="L88" t="n"/>
       <c s="1" r="M88" t="n">
-        <v>0.5579806076998501</v>
+        <v>0</v>
       </c>
       <c s="1" r="N88" t="s">
         <v>58</v>
@@ -20377,11 +19967,9 @@
       <c s="1" r="K89" t="n">
         <v>495930.4554935097</v>
       </c>
-      <c s="1" r="L89" t="n">
-        <v>1647560933.840016</v>
-      </c>
+      <c s="1" r="L89" t="n"/>
       <c s="1" r="M89" t="n">
-        <v>6.864837224333402</v>
+        <v>0</v>
       </c>
       <c s="1" r="N89" t="s">
         <v>58</v>
@@ -20421,11 +20009,9 @@
       <c s="1" r="K90" t="n">
         <v>330047.7248735387</v>
       </c>
-      <c s="1" r="L90" t="n">
-        <v>406577581.2136937</v>
-      </c>
+      <c s="1" r="L90" t="n"/>
       <c s="1" r="M90" t="n">
-        <v>1.694073255057057</v>
+        <v>0</v>
       </c>
       <c s="1" r="N90" t="s">
         <v>58</v>
@@ -20465,11 +20051,9 @@
       <c s="1" r="K91" t="n">
         <v>262785.7239445116</v>
       </c>
-      <c s="1" r="L91" t="n">
-        <v>288254306.379456</v>
-      </c>
+      <c s="1" r="L91" t="n"/>
       <c s="1" r="M91" t="n">
-        <v>1.2010596099144</v>
+        <v>0</v>
       </c>
       <c s="1" r="N91" t="s">
         <v>58</v>
@@ -20509,11 +20093,9 @@
       <c s="1" r="K92" t="n">
         <v>279728.2942067799</v>
       </c>
-      <c s="1" r="L92" t="n">
-        <v>147701058.3527982</v>
-      </c>
+      <c s="1" r="L92" t="n"/>
       <c s="1" r="M92" t="n">
-        <v>0.6154210764699924</v>
+        <v>0</v>
       </c>
       <c s="1" r="N92" t="s">
         <v>58</v>
@@ -20553,11 +20135,9 @@
       <c s="1" r="K93" t="n">
         <v>503836.5918065349</v>
       </c>
-      <c s="1" r="L93" t="n">
-        <v>535637705.2210901</v>
-      </c>
+      <c s="1" r="L93" t="n"/>
       <c s="1" r="M93" t="n">
-        <v>2.231823771754542</v>
+        <v>0</v>
       </c>
       <c s="1" r="N93" t="s">
         <v>58</v>
@@ -20597,11 +20177,9 @@
       <c s="1" r="K94" t="n">
         <v>521822.774479138</v>
       </c>
-      <c s="1" r="L94" t="n">
-        <v>225671524.7436272</v>
-      </c>
+      <c s="1" r="L94" t="n"/>
       <c s="1" r="M94" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c s="1" r="N94" t="s">
         <v>58</v>
@@ -20641,11 +20219,9 @@
       <c s="1" r="K95" t="n">
         <v>514374.676240897</v>
       </c>
-      <c s="1" r="L95" t="n">
-        <v>1136504909.825811</v>
-      </c>
+      <c s="1" r="L95" t="n"/>
       <c s="1" r="M95" t="n">
-        <v>4.735437124274211</v>
+        <v>0</v>
       </c>
       <c s="1" r="N95" t="s">
         <v>58</v>
@@ -20685,11 +20261,9 @@
       <c s="1" r="K96" t="n">
         <v>422345.9919349336</v>
       </c>
-      <c s="1" r="L96" t="n">
-        <v>358362590.3568678</v>
-      </c>
+      <c s="1" r="L96" t="n"/>
       <c s="1" r="M96" t="n">
-        <v>1.493177459820283</v>
+        <v>0</v>
       </c>
       <c s="1" r="N96" t="s">
         <v>58</v>
@@ -20729,11 +20303,9 @@
       <c s="1" r="K97" t="n">
         <v>171086.01328477</v>
       </c>
-      <c s="1" r="L97" t="n">
-        <v>38896517.83554512</v>
-      </c>
+      <c s="1" r="L97" t="n"/>
       <c s="1" r="M97" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c s="1" r="N97" t="s">
         <v>58</v>
@@ -20773,11 +20345,9 @@
       <c s="1" r="K98" t="n">
         <v>422062.9271276306</v>
       </c>
-      <c s="1" r="L98" t="n">
-        <v>246391107.1493456</v>
-      </c>
+      <c s="1" r="L98" t="n"/>
       <c s="1" r="M98" t="n">
-        <v>1.026629613122273</v>
+        <v>0</v>
       </c>
       <c s="1" r="N98" t="s">
         <v>58</v>
@@ -20817,11 +20387,9 @@
       <c s="1" r="K99" t="n">
         <v>257858.9121500926</v>
       </c>
-      <c s="1" r="L99" t="n">
-        <v>377582594.9617304</v>
-      </c>
+      <c s="1" r="L99" t="n"/>
       <c s="1" r="M99" t="n">
-        <v>1.573260812340543</v>
+        <v>0</v>
       </c>
       <c s="1" r="N99" t="s">
         <v>58</v>
@@ -20861,11 +20429,9 @@
       <c s="1" r="K100" t="n">
         <v>897180.6127750664</v>
       </c>
-      <c s="1" r="L100" t="n">
-        <v>1099735039.376274</v>
-      </c>
+      <c s="1" r="L100" t="n"/>
       <c s="1" r="M100" t="n">
-        <v>4.582229330734476</v>
+        <v>0</v>
       </c>
       <c s="1" r="N100" t="s">
         <v>58</v>
@@ -20905,11 +20471,9 @@
       <c s="1" r="K101" t="n">
         <v>259687.4070580456</v>
       </c>
-      <c s="1" r="L101" t="n">
-        <v>104731721.6136882</v>
-      </c>
+      <c s="1" r="L101" t="n"/>
       <c s="1" r="M101" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="1" r="N101" t="s">
         <v>58</v>
@@ -20949,11 +20513,9 @@
       <c s="1" r="K102" t="n">
         <v>492565.4285024718</v>
       </c>
-      <c s="1" r="L102" t="n">
-        <v>523677914.5095442</v>
-      </c>
+      <c s="1" r="L102" t="n"/>
       <c s="1" r="M102" t="n">
-        <v>2.181991310456434</v>
+        <v>0</v>
       </c>
       <c s="1" r="N102" t="s">
         <v>58</v>
@@ -20993,11 +20555,9 @@
       <c s="1" r="K103" t="n">
         <v>92905.14060629583</v>
       </c>
-      <c s="1" r="L103" t="n">
-        <v>36813395.54309931</v>
-      </c>
+      <c s="1" r="L103" t="n"/>
       <c s="1" r="M103" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c s="1" r="N103" t="s">
         <v>58</v>
@@ -21037,11 +20597,9 @@
       <c s="1" r="K104" t="n">
         <v>583326.8930198451</v>
       </c>
-      <c s="1" r="L104" t="n">
-        <v>566065376.0645214</v>
-      </c>
+      <c s="1" r="L104" t="n"/>
       <c s="1" r="M104" t="n">
-        <v>2.358605733602173</v>
+        <v>0</v>
       </c>
       <c s="1" r="N104" t="s">
         <v>58</v>
@@ -21081,11 +20639,9 @@
       <c s="1" r="K105" t="n">
         <v>367113.6997633189</v>
       </c>
-      <c s="1" r="L105" t="n">
-        <v>860573462.9574702</v>
-      </c>
+      <c s="1" r="L105" t="n"/>
       <c s="1" r="M105" t="n">
-        <v>3.585722762322793</v>
+        <v>0</v>
       </c>
       <c s="1" r="N105" t="s">
         <v>58</v>
@@ -21125,11 +20681,9 @@
       <c s="1" r="K106" t="n">
         <v>389614.4336899725</v>
       </c>
-      <c s="1" r="L106" t="n">
-        <v>186750249.7596833</v>
-      </c>
+      <c s="1" r="L106" t="n"/>
       <c s="1" r="M106" t="n">
-        <v>0.778126040665347</v>
+        <v>0</v>
       </c>
       <c s="1" r="N106" t="s">
         <v>58</v>
@@ -21169,11 +20723,9 @@
       <c s="1" r="K107" t="n">
         <v>565188.6067484862</v>
       </c>
-      <c s="1" r="L107" t="n">
-        <v>251908172.8218114</v>
-      </c>
+      <c s="1" r="L107" t="n"/>
       <c s="1" r="M107" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c s="1" r="N107" t="s">
         <v>58</v>
@@ -21213,11 +20765,9 @@
       <c s="1" r="K108" t="n">
         <v>311930.1410261235</v>
       </c>
-      <c s="1" r="L108" t="n">
-        <v>112320991.3184956</v>
-      </c>
+      <c s="1" r="L108" t="n"/>
       <c s="1" r="M108" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c s="1" r="N108" t="s">
         <v>58</v>
@@ -21257,11 +20807,9 @@
       <c s="1" r="K109" t="n">
         <v>527497.4268266353</v>
       </c>
-      <c s="1" r="L109" t="n">
-        <v>350358848.5443973</v>
-      </c>
+      <c s="1" r="L109" t="n"/>
       <c s="1" r="M109" t="n">
-        <v>1.459828535601655</v>
+        <v>0</v>
       </c>
       <c s="1" r="N109" t="s">
         <v>58</v>
@@ -21301,11 +20849,9 @@
       <c s="1" r="K110" t="n">
         <v>356524.1326393162</v>
       </c>
-      <c s="1" r="L110" t="n">
-        <v>77692875.13463369</v>
-      </c>
+      <c s="1" r="L110" t="n"/>
       <c s="1" r="M110" t="n">
-        <v>0.845</v>
+        <v>0</v>
       </c>
       <c s="1" r="N110" t="s">
         <v>58</v>
@@ -21345,11 +20891,9 @@
       <c s="1" r="K111" t="n">
         <v>374232.9084473585</v>
       </c>
-      <c s="1" r="L111" t="n">
-        <v>76565600.68161371</v>
-      </c>
+      <c s="1" r="L111" t="n"/>
       <c s="1" r="M111" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N111" t="s">
         <v>58</v>
@@ -21389,11 +20933,9 @@
       <c s="1" r="K112" t="n">
         <v>894518.9341226082</v>
       </c>
-      <c s="1" r="L112" t="n">
-        <v>3075352073.772311</v>
-      </c>
+      <c s="1" r="L112" t="n"/>
       <c s="1" r="M112" t="n">
-        <v>12.81396697405129</v>
+        <v>0</v>
       </c>
       <c s="1" r="N112" t="s">
         <v>58</v>
@@ -21433,11 +20975,9 @@
       <c s="1" r="K113" t="n">
         <v>488549.1705733731</v>
       </c>
-      <c s="1" r="L113" t="n">
-        <v>1855381841.950119</v>
-      </c>
+      <c s="1" r="L113" t="n"/>
       <c s="1" r="M113" t="n">
-        <v>7.730757674792163</v>
+        <v>0</v>
       </c>
       <c s="1" r="N113" t="s">
         <v>58</v>
@@ -21477,11 +21017,9 @@
       <c s="1" r="K114" t="n">
         <v>713089.6089053564</v>
       </c>
-      <c s="1" r="L114" t="n">
-        <v>1541330477.407039</v>
-      </c>
+      <c s="1" r="L114" t="n"/>
       <c s="1" r="M114" t="n">
-        <v>6.42221032252933</v>
+        <v>0</v>
       </c>
       <c s="1" r="N114" t="s">
         <v>58</v>
@@ -21521,11 +21059,9 @@
       <c s="1" r="K115" t="n">
         <v>692073.010003272</v>
       </c>
-      <c s="1" r="L115" t="n">
-        <v>1176966257.359681</v>
-      </c>
+      <c s="1" r="L115" t="n"/>
       <c s="1" r="M115" t="n">
-        <v>4.904026072332004</v>
+        <v>0</v>
       </c>
       <c s="1" r="N115" t="s">
         <v>58</v>
@@ -21565,11 +21101,9 @@
       <c s="1" r="K116" t="n">
         <v>215877.9402287963</v>
       </c>
-      <c s="1" r="L116" t="n">
-        <v>205897752.5033751</v>
-      </c>
+      <c s="1" r="L116" t="n"/>
       <c s="1" r="M116" t="n">
-        <v>0.8579073020973964</v>
+        <v>0</v>
       </c>
       <c s="1" r="N116" t="s">
         <v>58</v>
@@ -21609,11 +21143,9 @@
       <c s="1" r="K117" t="n">
         <v>969657.7965700377</v>
       </c>
-      <c s="1" r="L117" t="n">
-        <v>1490381130.083822</v>
-      </c>
+      <c s="1" r="L117" t="n"/>
       <c s="1" r="M117" t="n">
-        <v>6.209921375349261</v>
+        <v>0</v>
       </c>
       <c s="1" r="N117" t="s">
         <v>58</v>
@@ -21653,11 +21185,9 @@
       <c s="1" r="K118" t="n">
         <v>402642.2469716002</v>
       </c>
-      <c s="1" r="L118" t="n">
-        <v>322236509.8308355</v>
-      </c>
+      <c s="1" r="L118" t="n"/>
       <c s="1" r="M118" t="n">
-        <v>1.342652124295148</v>
+        <v>0</v>
       </c>
       <c s="1" r="N118" t="s">
         <v>58</v>
@@ -21697,11 +21227,9 @@
       <c s="1" r="K119" t="n">
         <v>277829.4973478165</v>
       </c>
-      <c s="1" r="L119" t="n">
-        <v>109102005.0887885</v>
-      </c>
+      <c s="1" r="L119" t="n"/>
       <c s="1" r="M119" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N119" t="s">
         <v>58</v>
@@ -21741,11 +21269,9 @@
       <c s="1" r="K120" t="n">
         <v>567024.6353521373</v>
       </c>
-      <c s="1" r="L120" t="n">
-        <v>1034208982.101372</v>
-      </c>
+      <c s="1" r="L120" t="n"/>
       <c s="1" r="M120" t="n">
-        <v>4.30920409208905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N120" t="s">
         <v>58</v>
@@ -21785,11 +21311,9 @@
       <c s="1" r="K121" t="n">
         <v>704359.3433915529</v>
       </c>
-      <c s="1" r="L121" t="n">
-        <v>1000888707.730626</v>
-      </c>
+      <c s="1" r="L121" t="n"/>
       <c s="1" r="M121" t="n">
-        <v>4.170369615544275</v>
+        <v>0</v>
       </c>
       <c s="1" r="N121" t="s">
         <v>58</v>
@@ -21829,11 +21353,9 @@
       <c s="1" r="K122" t="n">
         <v>321773.8009074271</v>
       </c>
-      <c s="1" r="L122" t="n">
-        <v>180002829.7701165</v>
-      </c>
+      <c s="1" r="L122" t="n"/>
       <c s="1" r="M122" t="n">
-        <v>0.750011790708819</v>
+        <v>0</v>
       </c>
       <c s="1" r="N122" t="s">
         <v>58</v>
@@ -21873,11 +21395,9 @@
       <c s="1" r="K123" t="n">
         <v>216831.4622912801</v>
       </c>
-      <c s="1" r="L123" t="n">
-        <v>209080684.5236857</v>
-      </c>
+      <c s="1" r="L123" t="n"/>
       <c s="1" r="M123" t="n">
-        <v>0.8711695188486905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N123" t="s">
         <v>58</v>
@@ -21917,11 +21437,9 @@
       <c s="1" r="K124" t="n">
         <v>580765.0949115618</v>
       </c>
-      <c s="1" r="L124" t="n">
-        <v>1676412264.249379</v>
-      </c>
+      <c s="1" r="L124" t="n"/>
       <c s="1" r="M124" t="n">
-        <v>6.98505110103908</v>
+        <v>0</v>
       </c>
       <c s="1" r="N124" t="s">
         <v>58</v>
@@ -21961,11 +21479,9 @@
       <c s="1" r="K125" t="n">
         <v>341461.6935985135</v>
       </c>
-      <c s="1" r="L125" t="n">
-        <v>265005493.6855074</v>
-      </c>
+      <c s="1" r="L125" t="n"/>
       <c s="1" r="M125" t="n">
-        <v>1.104189557022947</v>
+        <v>0</v>
       </c>
       <c s="1" r="N125" t="s">
         <v>58</v>
@@ -22005,11 +21521,9 @@
       <c s="1" r="K126" t="n">
         <v>331001.087585973</v>
       </c>
-      <c s="1" r="L126" t="n">
-        <v>394327197.737304</v>
-      </c>
+      <c s="1" r="L126" t="n"/>
       <c s="1" r="M126" t="n">
-        <v>1.6430299905721</v>
+        <v>0</v>
       </c>
       <c s="1" r="N126" t="s">
         <v>58</v>
@@ -22049,11 +21563,9 @@
       <c s="1" r="K127" t="n">
         <v>336176.275221078</v>
       </c>
-      <c s="1" r="L127" t="n">
-        <v>324368699.7033721</v>
-      </c>
+      <c s="1" r="L127" t="n"/>
       <c s="1" r="M127" t="n">
-        <v>1.35153624876405</v>
+        <v>0</v>
       </c>
       <c s="1" r="N127" t="s">
         <v>58</v>
@@ -22093,11 +21605,9 @@
       <c s="1" r="K128" t="n">
         <v>574153.1284324697</v>
       </c>
-      <c s="1" r="L128" t="n">
-        <v>1814529373.329412</v>
-      </c>
+      <c s="1" r="L128" t="n"/>
       <c s="1" r="M128" t="n">
-        <v>7.560539055539214</v>
+        <v>0</v>
       </c>
       <c s="1" r="N128" t="s">
         <v>58</v>
@@ -22137,11 +21647,9 @@
       <c s="1" r="K129" t="n">
         <v>437982.8598232696</v>
       </c>
-      <c s="1" r="L129" t="n">
-        <v>758691294.4710742</v>
-      </c>
+      <c s="1" r="L129" t="n"/>
       <c s="1" r="M129" t="n">
-        <v>3.161213726962809</v>
+        <v>0</v>
       </c>
       <c s="1" r="N129" t="s">
         <v>58</v>
@@ -22181,11 +21689,9 @@
       <c s="1" r="K130" t="n">
         <v>469858.3643690668</v>
       </c>
-      <c s="1" r="L130" t="n">
-        <v>865640841.4652407</v>
-      </c>
+      <c s="1" r="L130" t="n"/>
       <c s="1" r="M130" t="n">
-        <v>3.606836839438504</v>
+        <v>0</v>
       </c>
       <c s="1" r="N130" t="s">
         <v>58</v>
@@ -22225,11 +21731,9 @@
       <c s="1" r="K131" t="n">
         <v>474035.5283156893</v>
       </c>
-      <c s="1" r="L131" t="n">
-        <v>476348208.626933</v>
-      </c>
+      <c s="1" r="L131" t="n"/>
       <c s="1" r="M131" t="n">
-        <v>1.984784202612221</v>
+        <v>0</v>
       </c>
       <c s="1" r="N131" t="s">
         <v>58</v>
@@ -22269,11 +21773,9 @@
       <c s="1" r="K132" t="n">
         <v>700726.8555367457</v>
       </c>
-      <c s="1" r="L132" t="n">
-        <v>666260533.0362391</v>
-      </c>
+      <c s="1" r="L132" t="n"/>
       <c s="1" r="M132" t="n">
-        <v>2.776085554317663</v>
+        <v>0</v>
       </c>
       <c s="1" r="N132" t="s">
         <v>58</v>
@@ -22313,11 +21815,9 @@
       <c s="1" r="K133" t="n">
         <v>466596.9518298669</v>
       </c>
-      <c s="1" r="L133" t="n">
-        <v>738737425.2336342</v>
-      </c>
+      <c s="1" r="L133" t="n"/>
       <c s="1" r="M133" t="n">
-        <v>3.078072605140143</v>
+        <v>0</v>
       </c>
       <c s="1" r="N133" t="s">
         <v>58</v>
@@ -22357,11 +21857,9 @@
       <c s="1" r="K134" t="n">
         <v>190169.8375803638</v>
       </c>
-      <c s="1" r="L134" t="n">
-        <v>49993651.89923508</v>
-      </c>
+      <c s="1" r="L134" t="n"/>
       <c s="1" r="M134" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c s="1" r="N134" t="s">
         <v>58</v>
@@ -22401,11 +21899,9 @@
       <c s="1" r="K135" t="n">
         <v>895255.5270350019</v>
       </c>
-      <c s="1" r="L135" t="n">
-        <v>2197428637.482756</v>
-      </c>
+      <c s="1" r="L135" t="n"/>
       <c s="1" r="M135" t="n">
-        <v>9.155952656178149</v>
+        <v>0</v>
       </c>
       <c s="1" r="N135" t="s">
         <v>58</v>
@@ -22445,11 +21941,9 @@
       <c s="1" r="K136" t="n">
         <v>427105.9554003449</v>
       </c>
-      <c s="1" r="L136" t="n">
-        <v>1375681811.140761</v>
-      </c>
+      <c s="1" r="L136" t="n"/>
       <c s="1" r="M136" t="n">
-        <v>5.732007546419837</v>
+        <v>0</v>
       </c>
       <c s="1" r="N136" t="s">
         <v>58</v>
@@ -22489,11 +21983,9 @@
       <c s="1" r="K137" t="n">
         <v>340948.0105810406</v>
       </c>
-      <c s="1" r="L137" t="n">
-        <v>141382216.393462</v>
-      </c>
+      <c s="1" r="L137" t="n"/>
       <c s="1" r="M137" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c s="1" r="N137" t="s">
         <v>58</v>
@@ -22533,11 +22025,9 @@
       <c s="1" r="K138" t="n">
         <v>286248.4762965654</v>
       </c>
-      <c s="1" r="L138" t="n">
-        <v>182251239.5922147</v>
-      </c>
+      <c s="1" r="L138" t="n"/>
       <c s="1" r="M138" t="n">
-        <v>0.7593801649675613</v>
+        <v>0</v>
       </c>
       <c s="1" r="N138" t="s">
         <v>58</v>
@@ -22577,11 +22067,9 @@
       <c s="1" r="K139" t="n">
         <v>169651.4187294292</v>
       </c>
-      <c s="1" r="L139" t="n">
-        <v>86590180.89450546</v>
-      </c>
+      <c s="1" r="L139" t="n"/>
       <c s="1" r="M139" t="n">
-        <v>0.3607924203937727</v>
+        <v>0</v>
       </c>
       <c s="1" r="N139" t="s">
         <v>58</v>
@@ -22621,11 +22109,9 @@
       <c s="1" r="K140" t="n">
         <v>404067.7176172683</v>
       </c>
-      <c s="1" r="L140" t="n">
-        <v>198214219.5119653</v>
-      </c>
+      <c s="1" r="L140" t="n"/>
       <c s="1" r="M140" t="n">
-        <v>0.8258925812998554</v>
+        <v>0</v>
       </c>
       <c s="1" r="N140" t="s">
         <v>58</v>
@@ -22665,11 +22151,9 @@
       <c s="1" r="K141" t="n">
         <v>181333.1618427264</v>
       </c>
-      <c s="1" r="L141" t="n">
-        <v>85562194.4161329</v>
-      </c>
+      <c s="1" r="L141" t="n"/>
       <c s="1" r="M141" t="n">
-        <v>0.3565091434005537</v>
+        <v>0</v>
       </c>
       <c s="1" r="N141" t="s">
         <v>58</v>
@@ -22709,11 +22193,9 @@
       <c s="1" r="K142" t="n">
         <v>670761.8142317559</v>
       </c>
-      <c s="1" r="L142" t="n">
-        <v>813080314.358644</v>
-      </c>
+      <c s="1" r="L142" t="n"/>
       <c s="1" r="M142" t="n">
-        <v>3.387834643161017</v>
+        <v>0</v>
       </c>
       <c s="1" r="N142" t="s">
         <v>58</v>
@@ -22753,11 +22235,9 @@
       <c s="1" r="K143" t="n">
         <v>727156.8284259186</v>
       </c>
-      <c s="1" r="L143" t="n">
-        <v>352771499.0952066</v>
-      </c>
+      <c s="1" r="L143" t="n"/>
       <c s="1" r="M143" t="n">
-        <v>1.469881246230027</v>
+        <v>0</v>
       </c>
       <c s="1" r="N143" t="s">
         <v>58</v>
@@ -22797,11 +22277,9 @@
       <c s="1" r="K144" t="n">
         <v>454127.0102769254</v>
       </c>
-      <c s="1" r="L144" t="n">
-        <v>961112738.5257416</v>
-      </c>
+      <c s="1" r="L144" t="n"/>
       <c s="1" r="M144" t="n">
-        <v>4.004636410523923</v>
+        <v>0</v>
       </c>
       <c s="1" r="N144" t="s">
         <v>58</v>
@@ -22875,11 +22353,9 @@
       <c s="1" r="K146" t="n">
         <v>522076.3475951126</v>
       </c>
-      <c s="1" r="L146" t="n">
-        <v>428897227.7640692</v>
-      </c>
+      <c s="1" r="L146" t="n"/>
       <c s="1" r="M146" t="n">
-        <v>1.787071782350289</v>
+        <v>0</v>
       </c>
       <c s="1" r="N146" t="s">
         <v>58</v>
@@ -22919,11 +22395,9 @@
       <c s="1" r="K147" t="n">
         <v>491896.4301473144</v>
       </c>
-      <c s="1" r="L147" t="n">
-        <v>221815515.7291227</v>
-      </c>
+      <c s="1" r="L147" t="n"/>
       <c s="1" r="M147" t="n">
-        <v>0.9242313155380112</v>
+        <v>0</v>
       </c>
       <c s="1" r="N147" t="s">
         <v>58</v>
@@ -22963,11 +22437,9 @@
       <c s="1" r="K148" t="n">
         <v>1101836.042241104</v>
       </c>
-      <c s="1" r="L148" t="n">
-        <v>286699376.7044205</v>
-      </c>
+      <c s="1" r="L148" t="n"/>
       <c s="1" r="M148" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c s="1" r="N148" t="s">
         <v>58</v>
@@ -50068,11 +49540,9 @@
       </c>
       <c s="1" r="J2" t="n"/>
       <c s="1" r="K2" t="n"/>
-      <c s="1" r="L2" t="n">
-        <v>537224436.8500453</v>
-      </c>
+      <c s="1" r="L2" t="n"/>
       <c s="1" r="M2" t="n">
-        <v>2.238435153541856</v>
+        <v>0</v>
       </c>
       <c s="1" r="N2" t="s">
         <v>58</v>
@@ -50108,11 +49578,9 @@
       </c>
       <c s="1" r="J3" t="n"/>
       <c s="1" r="K3" t="n"/>
-      <c s="1" r="L3" t="n">
-        <v>835469373.8046778</v>
-      </c>
+      <c s="1" r="L3" t="n"/>
       <c s="1" r="M3" t="n">
-        <v>3.481122390852824</v>
+        <v>0</v>
       </c>
       <c s="1" r="N3" t="s">
         <v>58</v>
@@ -50148,11 +49616,9 @@
       </c>
       <c s="1" r="J4" t="n"/>
       <c s="1" r="K4" t="n"/>
-      <c s="1" r="L4" t="n">
-        <v>1150548960.37307</v>
-      </c>
+      <c s="1" r="L4" t="n"/>
       <c s="1" r="M4" t="n">
-        <v>4.793954001554459</v>
+        <v>0</v>
       </c>
       <c s="1" r="N4" t="s">
         <v>58</v>
@@ -50188,11 +49654,9 @@
       </c>
       <c s="1" r="J5" t="n"/>
       <c s="1" r="K5" t="n"/>
-      <c s="1" r="L5" t="n">
-        <v>452875000.5385446</v>
-      </c>
+      <c s="1" r="L5" t="n"/>
       <c s="1" r="M5" t="n">
-        <v>1.886979168910603</v>
+        <v>0</v>
       </c>
       <c s="1" r="N5" t="s">
         <v>58</v>
@@ -50228,11 +49692,9 @@
       </c>
       <c s="1" r="J6" t="n"/>
       <c s="1" r="K6" t="n"/>
-      <c s="1" r="L6" t="n">
-        <v>380087117.1146716</v>
-      </c>
+      <c s="1" r="L6" t="n"/>
       <c s="1" r="M6" t="n">
-        <v>1.583696321311132</v>
+        <v>0</v>
       </c>
       <c s="1" r="N6" t="s">
         <v>58</v>
@@ -50268,11 +49730,9 @@
       </c>
       <c s="1" r="J7" t="n"/>
       <c s="1" r="K7" t="n"/>
-      <c s="1" r="L7" t="n">
-        <v>1573953975.623989</v>
-      </c>
+      <c s="1" r="L7" t="n"/>
       <c s="1" r="M7" t="n">
-        <v>6.558141565099953</v>
+        <v>0</v>
       </c>
       <c s="1" r="N7" t="s">
         <v>58</v>
@@ -50308,11 +49768,9 @@
       </c>
       <c s="1" r="J8" t="n"/>
       <c s="1" r="K8" t="n"/>
-      <c s="1" r="L8" t="n">
-        <v>207808647.1646924</v>
-      </c>
+      <c s="1" r="L8" t="n"/>
       <c s="1" r="M8" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c s="1" r="N8" t="s">
         <v>58</v>
@@ -50348,11 +49806,9 @@
       </c>
       <c s="1" r="J9" t="n"/>
       <c s="1" r="K9" t="n"/>
-      <c s="1" r="L9" t="n">
-        <v>390724403.5152215</v>
-      </c>
+      <c s="1" r="L9" t="n"/>
       <c s="1" r="M9" t="n">
-        <v>1.62801834798009</v>
+        <v>0</v>
       </c>
       <c s="1" r="N9" t="s">
         <v>58</v>
@@ -50388,11 +49844,9 @@
       </c>
       <c s="1" r="J10" t="n"/>
       <c s="1" r="K10" t="n"/>
-      <c s="1" r="L10" t="n">
-        <v>144535795.2710628</v>
-      </c>
+      <c s="1" r="L10" t="n"/>
       <c s="1" r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c s="1" r="N10" t="s">
         <v>58</v>
@@ -50428,11 +49882,9 @@
       </c>
       <c s="1" r="J11" t="n"/>
       <c s="1" r="K11" t="n"/>
-      <c s="1" r="L11" t="n">
-        <v>2092885686.718093</v>
-      </c>
+      <c s="1" r="L11" t="n"/>
       <c s="1" r="M11" t="n">
-        <v>8.720357027992055</v>
+        <v>0</v>
       </c>
       <c s="1" r="N11" t="s">
         <v>58</v>
@@ -50468,11 +49920,9 @@
       </c>
       <c s="1" r="J12" t="n"/>
       <c s="1" r="K12" t="n"/>
-      <c s="1" r="L12" t="n">
-        <v>294196604.9370926</v>
-      </c>
+      <c s="1" r="L12" t="n"/>
       <c s="1" r="M12" t="n">
-        <v>1.225819187237886</v>
+        <v>0</v>
       </c>
       <c s="1" r="N12" t="s">
         <v>58</v>
@@ -50508,11 +49958,9 @@
       </c>
       <c s="1" r="J13" t="n"/>
       <c s="1" r="K13" t="n"/>
-      <c s="1" r="L13" t="n">
-        <v>68020456.99563764</v>
-      </c>
+      <c s="1" r="L13" t="n"/>
       <c s="1" r="M13" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c s="1" r="N13" t="s">
         <v>58</v>
@@ -50548,11 +49996,9 @@
       </c>
       <c s="1" r="J14" t="n"/>
       <c s="1" r="K14" t="n"/>
-      <c s="1" r="L14" t="n">
-        <v>1449711006.052581</v>
-      </c>
+      <c s="1" r="L14" t="n"/>
       <c s="1" r="M14" t="n">
-        <v>6.040462525219086</v>
+        <v>0</v>
       </c>
       <c s="1" r="N14" t="s">
         <v>58</v>
@@ -50588,11 +50034,9 @@
       </c>
       <c s="1" r="J15" t="n"/>
       <c s="1" r="K15" t="n"/>
-      <c s="1" r="L15" t="n">
-        <v>999532293.9450097</v>
-      </c>
+      <c s="1" r="L15" t="n"/>
       <c s="1" r="M15" t="n">
-        <v>4.16471789143754</v>
+        <v>0</v>
       </c>
       <c s="1" r="N15" t="s">
         <v>58</v>
@@ -50662,11 +50106,9 @@
       </c>
       <c s="1" r="J17" t="n"/>
       <c s="1" r="K17" t="n"/>
-      <c s="1" r="L17" t="n">
-        <v>878126433.4851732</v>
-      </c>
+      <c s="1" r="L17" t="n"/>
       <c s="1" r="M17" t="n">
-        <v>3.658860139521555</v>
+        <v>0</v>
       </c>
       <c s="1" r="N17" t="s">
         <v>58</v>
@@ -50702,11 +50144,9 @@
       </c>
       <c s="1" r="J18" t="n"/>
       <c s="1" r="K18" t="n"/>
-      <c s="1" r="L18" t="n">
-        <v>635284324.6778327</v>
-      </c>
+      <c s="1" r="L18" t="n"/>
       <c s="1" r="M18" t="n">
-        <v>2.647018019490969</v>
+        <v>0</v>
       </c>
       <c s="1" r="N18" t="s">
         <v>58</v>
@@ -50742,11 +50182,9 @@
       </c>
       <c s="1" r="J19" t="n"/>
       <c s="1" r="K19" t="n"/>
-      <c s="1" r="L19" t="n">
-        <v>176089478.6536772</v>
-      </c>
+      <c s="1" r="L19" t="n"/>
       <c s="1" r="M19" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N19" t="s">
         <v>58</v>
@@ -50782,11 +50220,9 @@
       </c>
       <c s="1" r="J20" t="n"/>
       <c s="1" r="K20" t="n"/>
-      <c s="1" r="L20" t="n">
-        <v>1637265562.408588</v>
-      </c>
+      <c s="1" r="L20" t="n"/>
       <c s="1" r="M20" t="n">
-        <v>6.821939843369119</v>
+        <v>0</v>
       </c>
       <c s="1" r="N20" t="s">
         <v>58</v>
@@ -50822,11 +50258,9 @@
       </c>
       <c s="1" r="J21" t="n"/>
       <c s="1" r="K21" t="n"/>
-      <c s="1" r="L21" t="n">
-        <v>729227677.9387966</v>
-      </c>
+      <c s="1" r="L21" t="n"/>
       <c s="1" r="M21" t="n">
-        <v>3.03844865807832</v>
+        <v>0</v>
       </c>
       <c s="1" r="N21" t="s">
         <v>58</v>
@@ -50862,11 +50296,9 @@
       </c>
       <c s="1" r="J22" t="n"/>
       <c s="1" r="K22" t="n"/>
-      <c s="1" r="L22" t="n">
-        <v>255433452.6699406</v>
-      </c>
+      <c s="1" r="L22" t="n"/>
       <c s="1" r="M22" t="n">
-        <v>1.064306052791419</v>
+        <v>0</v>
       </c>
       <c s="1" r="N22" t="s">
         <v>58</v>
@@ -50902,11 +50334,9 @@
       </c>
       <c s="1" r="J23" t="n"/>
       <c s="1" r="K23" t="n"/>
-      <c s="1" r="L23" t="n">
-        <v>2478418703.13426</v>
-      </c>
+      <c s="1" r="L23" t="n"/>
       <c s="1" r="M23" t="n">
-        <v>10.32674459639275</v>
+        <v>0</v>
       </c>
       <c s="1" r="N23" t="s">
         <v>58</v>
@@ -50942,11 +50372,9 @@
       </c>
       <c s="1" r="J24" t="n"/>
       <c s="1" r="K24" t="n"/>
-      <c s="1" r="L24" t="n">
-        <v>615800853.0805365</v>
-      </c>
+      <c s="1" r="L24" t="n"/>
       <c s="1" r="M24" t="n">
-        <v>2.565836887835569</v>
+        <v>0</v>
       </c>
       <c s="1" r="N24" t="s">
         <v>58</v>
@@ -50982,11 +50410,9 @@
       </c>
       <c s="1" r="J25" t="n"/>
       <c s="1" r="K25" t="n"/>
-      <c s="1" r="L25" t="n">
-        <v>1216367795.175988</v>
-      </c>
+      <c s="1" r="L25" t="n"/>
       <c s="1" r="M25" t="n">
-        <v>5.068199146566618</v>
+        <v>0</v>
       </c>
       <c s="1" r="N25" t="s">
         <v>58</v>
@@ -51022,11 +50448,9 @@
       </c>
       <c s="1" r="J26" t="n"/>
       <c s="1" r="K26" t="n"/>
-      <c s="1" r="L26" t="n">
-        <v>356721194.3038064</v>
-      </c>
+      <c s="1" r="L26" t="n"/>
       <c s="1" r="M26" t="n">
-        <v>1.486338309599194</v>
+        <v>0</v>
       </c>
       <c s="1" r="N26" t="s">
         <v>58</v>
@@ -51062,11 +50486,9 @@
       </c>
       <c s="1" r="J27" t="n"/>
       <c s="1" r="K27" t="n"/>
-      <c s="1" r="L27" t="n">
-        <v>50196579.01710138</v>
-      </c>
+      <c s="1" r="L27" t="n"/>
       <c s="1" r="M27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c s="1" r="N27" t="s">
         <v>58</v>
@@ -51102,11 +50524,9 @@
       </c>
       <c s="1" r="J28" t="n"/>
       <c s="1" r="K28" t="n"/>
-      <c s="1" r="L28" t="n">
-        <v>53184103.00751879</v>
-      </c>
+      <c s="1" r="L28" t="n"/>
       <c s="1" r="M28" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c s="1" r="N28" t="s">
         <v>58</v>
@@ -51142,11 +50562,9 @@
       </c>
       <c s="1" r="J29" t="n"/>
       <c s="1" r="K29" t="n"/>
-      <c s="1" r="L29" t="n">
-        <v>85355347.85443228</v>
-      </c>
+      <c s="1" r="L29" t="n"/>
       <c s="1" r="M29" t="n">
-        <v>0.3556472827268012</v>
+        <v>0</v>
       </c>
       <c s="1" r="N29" t="s">
         <v>58</v>
@@ -51216,11 +50634,9 @@
       </c>
       <c s="1" r="J31" t="n"/>
       <c s="1" r="K31" t="n"/>
-      <c s="1" r="L31" t="n">
-        <v>159380791.4264976</v>
-      </c>
+      <c s="1" r="L31" t="n"/>
       <c s="1" r="M31" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c s="1" r="N31" t="s">
         <v>58</v>
@@ -51256,11 +50672,9 @@
       </c>
       <c s="1" r="J32" t="n"/>
       <c s="1" r="K32" t="n"/>
-      <c s="1" r="L32" t="n">
-        <v>1546836.280556754</v>
-      </c>
+      <c s="1" r="L32" t="n"/>
       <c s="1" r="M32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c s="1" r="N32" t="s">
         <v>56</v>
@@ -51296,11 +50710,9 @@
       </c>
       <c s="1" r="J33" t="n"/>
       <c s="1" r="K33" t="n"/>
-      <c s="1" r="L33" t="n">
-        <v>513512295.5619642</v>
-      </c>
+      <c s="1" r="L33" t="n"/>
       <c s="1" r="M33" t="n">
-        <v>2.139634564841517</v>
+        <v>0</v>
       </c>
       <c s="1" r="N33" t="s">
         <v>58</v>
@@ -51336,11 +50748,9 @@
       </c>
       <c s="1" r="J34" t="n"/>
       <c s="1" r="K34" t="n"/>
-      <c s="1" r="L34" t="n">
-        <v>3511460622.906536</v>
-      </c>
+      <c s="1" r="L34" t="n"/>
       <c s="1" r="M34" t="n">
-        <v>14.63108592877724</v>
+        <v>0</v>
       </c>
       <c s="1" r="N34" t="s">
         <v>58</v>
@@ -51376,11 +50786,9 @@
       </c>
       <c s="1" r="J35" t="n"/>
       <c s="1" r="K35" t="n"/>
-      <c s="1" r="L35" t="n">
-        <v>9909049.854744833</v>
-      </c>
+      <c s="1" r="L35" t="n"/>
       <c s="1" r="M35" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
       <c s="1" r="N35" t="s">
         <v>56</v>
@@ -51416,11 +50824,9 @@
       </c>
       <c s="1" r="J36" t="n"/>
       <c s="1" r="K36" t="n"/>
-      <c s="1" r="L36" t="n">
-        <v>7765627.395948078</v>
-      </c>
+      <c s="1" r="L36" t="n"/>
       <c s="1" r="M36" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c s="1" r="N36" t="s">
         <v>56</v>
@@ -51456,11 +50862,9 @@
       </c>
       <c s="1" r="J37" t="n"/>
       <c s="1" r="K37" t="n"/>
-      <c s="1" r="L37" t="n">
-        <v>1661821837.279703</v>
-      </c>
+      <c s="1" r="L37" t="n"/>
       <c s="1" r="M37" t="n">
-        <v>6.924257655332097</v>
+        <v>0</v>
       </c>
       <c s="1" r="N37" t="s">
         <v>58</v>
@@ -51496,11 +50900,9 @@
       </c>
       <c s="1" r="J38" t="n"/>
       <c s="1" r="K38" t="n"/>
-      <c s="1" r="L38" t="n">
-        <v>1133424533.960344</v>
-      </c>
+      <c s="1" r="L38" t="n"/>
       <c s="1" r="M38" t="n">
-        <v>4.722602224834765</v>
+        <v>0</v>
       </c>
       <c s="1" r="N38" t="s">
         <v>58</v>
@@ -51570,11 +50972,9 @@
       </c>
       <c s="1" r="J40" t="n"/>
       <c s="1" r="K40" t="n"/>
-      <c s="1" r="L40" t="n">
-        <v>476899752.9796228</v>
-      </c>
+      <c s="1" r="L40" t="n"/>
       <c s="1" r="M40" t="n">
-        <v>1.987082304081762</v>
+        <v>0</v>
       </c>
       <c s="1" r="N40" t="s">
         <v>58</v>
@@ -51610,11 +51010,9 @@
       </c>
       <c s="1" r="J41" t="n"/>
       <c s="1" r="K41" t="n"/>
-      <c s="1" r="L41" t="n">
-        <v>633705894.0379843</v>
-      </c>
+      <c s="1" r="L41" t="n"/>
       <c s="1" r="M41" t="n">
-        <v>2.640441225158268</v>
+        <v>0</v>
       </c>
       <c s="1" r="N41" t="s">
         <v>58</v>
@@ -51650,11 +51048,9 @@
       </c>
       <c s="1" r="J42" t="n"/>
       <c s="1" r="K42" t="n"/>
-      <c s="1" r="L42" t="n">
-        <v>870341537.233694</v>
-      </c>
+      <c s="1" r="L42" t="n"/>
       <c s="1" r="M42" t="n">
-        <v>3.626423071807058</v>
+        <v>0</v>
       </c>
       <c s="1" r="N42" t="s">
         <v>58</v>
@@ -51690,11 +51086,9 @@
       </c>
       <c s="1" r="J43" t="n"/>
       <c s="1" r="K43" t="n"/>
-      <c s="1" r="L43" t="n">
-        <v>447193658.0990706</v>
-      </c>
+      <c s="1" r="L43" t="n"/>
       <c s="1" r="M43" t="n">
-        <v>1.863306908746128</v>
+        <v>0</v>
       </c>
       <c s="1" r="N43" t="s">
         <v>58</v>
@@ -51730,11 +51124,9 @@
       </c>
       <c s="1" r="J44" t="n"/>
       <c s="1" r="K44" t="n"/>
-      <c s="1" r="L44" t="n">
-        <v>886652997.1333859</v>
-      </c>
+      <c s="1" r="L44" t="n"/>
       <c s="1" r="M44" t="n">
-        <v>3.694387488055775</v>
+        <v>0</v>
       </c>
       <c s="1" r="N44" t="s">
         <v>58</v>
@@ -51770,11 +51162,9 @@
       </c>
       <c s="1" r="J45" t="n"/>
       <c s="1" r="K45" t="n"/>
-      <c s="1" r="L45" t="n">
-        <v>647777446.7243403</v>
-      </c>
+      <c s="1" r="L45" t="n"/>
       <c s="1" r="M45" t="n">
-        <v>2.699072694684751</v>
+        <v>0</v>
       </c>
       <c s="1" r="N45" t="s">
         <v>58</v>
@@ -51810,11 +51200,9 @@
       </c>
       <c s="1" r="J46" t="n"/>
       <c s="1" r="K46" t="n"/>
-      <c s="1" r="L46" t="n">
-        <v>224792351.9212009</v>
-      </c>
+      <c s="1" r="L46" t="n"/>
       <c s="1" r="M46" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c s="1" r="N46" t="s">
         <v>58</v>
@@ -51850,11 +51238,9 @@
       </c>
       <c s="1" r="J47" t="n"/>
       <c s="1" r="K47" t="n"/>
-      <c s="1" r="L47" t="n">
-        <v>88322960.15185335</v>
-      </c>
+      <c s="1" r="L47" t="n"/>
       <c s="1" r="M47" t="n">
-        <v>0.3680123339660556</v>
+        <v>0</v>
       </c>
       <c s="1" r="N47" t="s">
         <v>58</v>
@@ -51890,11 +51276,9 @@
       </c>
       <c s="1" r="J48" t="n"/>
       <c s="1" r="K48" t="n"/>
-      <c s="1" r="L48" t="n">
-        <v>347094049.9112307</v>
-      </c>
+      <c s="1" r="L48" t="n"/>
       <c s="1" r="M48" t="n">
-        <v>1.446225207963462</v>
+        <v>0</v>
       </c>
       <c s="1" r="N48" t="s">
         <v>58</v>
@@ -51930,11 +51314,9 @@
       </c>
       <c s="1" r="J49" t="n"/>
       <c s="1" r="K49" t="n"/>
-      <c s="1" r="L49" t="n">
-        <v>177075548.348321</v>
-      </c>
+      <c s="1" r="L49" t="n"/>
       <c s="1" r="M49" t="n">
-        <v>0.737814784784671</v>
+        <v>0</v>
       </c>
       <c s="1" r="N49" t="s">
         <v>58</v>
@@ -51970,11 +51352,9 @@
       </c>
       <c s="1" r="J50" t="n"/>
       <c s="1" r="K50" t="n"/>
-      <c s="1" r="L50" t="n">
-        <v>1552471649.452077</v>
-      </c>
+      <c s="1" r="L50" t="n"/>
       <c s="1" r="M50" t="n">
-        <v>6.468631872716989</v>
+        <v>0</v>
       </c>
       <c s="1" r="N50" t="s">
         <v>58</v>
@@ -52010,11 +51390,9 @@
       </c>
       <c s="1" r="J51" t="n"/>
       <c s="1" r="K51" t="n"/>
-      <c s="1" r="L51" t="n">
-        <v>399223781.6427073</v>
-      </c>
+      <c s="1" r="L51" t="n"/>
       <c s="1" r="M51" t="n">
-        <v>1.66343242351128</v>
+        <v>0</v>
       </c>
       <c s="1" r="N51" t="s">
         <v>58</v>
@@ -52050,11 +51428,9 @@
       </c>
       <c s="1" r="J52" t="n"/>
       <c s="1" r="K52" t="n"/>
-      <c s="1" r="L52" t="n">
-        <v>510843726.3070215</v>
-      </c>
+      <c s="1" r="L52" t="n"/>
       <c s="1" r="M52" t="n">
-        <v>2.128515526279256</v>
+        <v>0</v>
       </c>
       <c s="1" r="N52" t="s">
         <v>58</v>
@@ -52090,11 +51466,9 @@
       </c>
       <c s="1" r="J53" t="n"/>
       <c s="1" r="K53" t="n"/>
-      <c s="1" r="L53" t="n">
-        <v>319112325.0648135</v>
-      </c>
+      <c s="1" r="L53" t="n"/>
       <c s="1" r="M53" t="n">
-        <v>1.329634687770056</v>
+        <v>0</v>
       </c>
       <c s="1" r="N53" t="s">
         <v>58</v>
@@ -52130,11 +51504,9 @@
       </c>
       <c s="1" r="J54" t="n"/>
       <c s="1" r="K54" t="n"/>
-      <c s="1" r="L54" t="n">
-        <v>167505023.6878971</v>
-      </c>
+      <c s="1" r="L54" t="n"/>
       <c s="1" r="M54" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c s="1" r="N54" t="s">
         <v>58</v>
@@ -52170,11 +51542,9 @@
       </c>
       <c s="1" r="J55" t="n"/>
       <c s="1" r="K55" t="n"/>
-      <c s="1" r="L55" t="n">
-        <v>217397643.7289772</v>
-      </c>
+      <c s="1" r="L55" t="n"/>
       <c s="1" r="M55" t="n">
-        <v>0.9058235155374048</v>
+        <v>0</v>
       </c>
       <c s="1" r="N55" t="s">
         <v>58</v>
@@ -52210,11 +51580,9 @@
       </c>
       <c s="1" r="J56" t="n"/>
       <c s="1" r="K56" t="n"/>
-      <c s="1" r="L56" t="n">
-        <v>195198306.6805627</v>
-      </c>
+      <c s="1" r="L56" t="n"/>
       <c s="1" r="M56" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c s="1" r="N56" t="s">
         <v>58</v>
@@ -52250,11 +51618,9 @@
       </c>
       <c s="1" r="J57" t="n"/>
       <c s="1" r="K57" t="n"/>
-      <c s="1" r="L57" t="n">
-        <v>912785340.6593421</v>
-      </c>
+      <c s="1" r="L57" t="n"/>
       <c s="1" r="M57" t="n">
-        <v>3.803272252747258</v>
+        <v>0</v>
       </c>
       <c s="1" r="N57" t="s">
         <v>58</v>
@@ -52290,11 +51656,9 @@
       </c>
       <c s="1" r="J58" t="n"/>
       <c s="1" r="K58" t="n"/>
-      <c s="1" r="L58" t="n">
-        <v>1095228146.553048</v>
-      </c>
+      <c s="1" r="L58" t="n"/>
       <c s="1" r="M58" t="n">
-        <v>4.5634506106377</v>
+        <v>0</v>
       </c>
       <c s="1" r="N58" t="s">
         <v>58</v>
@@ -52330,11 +51694,9 @@
       </c>
       <c s="1" r="J59" t="n"/>
       <c s="1" r="K59" t="n"/>
-      <c s="1" r="L59" t="n">
-        <v>335868036.939862</v>
-      </c>
+      <c s="1" r="L59" t="n"/>
       <c s="1" r="M59" t="n">
-        <v>1.399450153916092</v>
+        <v>0</v>
       </c>
       <c s="1" r="N59" t="s">
         <v>58</v>
@@ -52370,11 +51732,9 @@
       </c>
       <c s="1" r="J60" t="n"/>
       <c s="1" r="K60" t="n"/>
-      <c s="1" r="L60" t="n">
-        <v>667738714.1804768</v>
-      </c>
+      <c s="1" r="L60" t="n"/>
       <c s="1" r="M60" t="n">
-        <v>2.782244642418653</v>
+        <v>0</v>
       </c>
       <c s="1" r="N60" t="s">
         <v>58</v>
@@ -52410,11 +51770,9 @@
       </c>
       <c s="1" r="J61" t="n"/>
       <c s="1" r="K61" t="n"/>
-      <c s="1" r="L61" t="n">
-        <v>96717244.93540335</v>
-      </c>
+      <c s="1" r="L61" t="n"/>
       <c s="1" r="M61" t="n">
-        <v>1.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N61" t="s">
         <v>58</v>
@@ -52450,11 +51808,9 @@
       </c>
       <c s="1" r="J62" t="n"/>
       <c s="1" r="K62" t="n"/>
-      <c s="1" r="L62" t="n">
-        <v>295805375.5976872</v>
-      </c>
+      <c s="1" r="L62" t="n"/>
       <c s="1" r="M62" t="n">
-        <v>1.232522398323697</v>
+        <v>0</v>
       </c>
       <c s="1" r="N62" t="s">
         <v>58</v>
@@ -52490,11 +51846,9 @@
       </c>
       <c s="1" r="J63" t="n"/>
       <c s="1" r="K63" t="n"/>
-      <c s="1" r="L63" t="n">
-        <v>280279043.1672367</v>
-      </c>
+      <c s="1" r="L63" t="n"/>
       <c s="1" r="M63" t="n">
-        <v>1.167829346530153</v>
+        <v>0</v>
       </c>
       <c s="1" r="N63" t="s">
         <v>58</v>
@@ -52564,11 +51918,9 @@
       </c>
       <c s="1" r="J65" t="n"/>
       <c s="1" r="K65" t="n"/>
-      <c s="1" r="L65" t="n">
-        <v>377678120.1120505</v>
-      </c>
+      <c s="1" r="L65" t="n"/>
       <c s="1" r="M65" t="n">
-        <v>1.573658833800211</v>
+        <v>0</v>
       </c>
       <c s="1" r="N65" t="s">
         <v>58</v>
@@ -52604,11 +51956,9 @@
       </c>
       <c s="1" r="J66" t="n"/>
       <c s="1" r="K66" t="n"/>
-      <c s="1" r="L66" t="n">
-        <v>161458981.3336699</v>
-      </c>
+      <c s="1" r="L66" t="n"/>
       <c s="1" r="M66" t="n">
-        <v>2.265</v>
+        <v>0</v>
       </c>
       <c s="1" r="N66" t="s">
         <v>58</v>
@@ -52644,11 +51994,9 @@
       </c>
       <c s="1" r="J67" t="n"/>
       <c s="1" r="K67" t="n"/>
-      <c s="1" r="L67" t="n">
-        <v>98255242.62578245</v>
-      </c>
+      <c s="1" r="L67" t="n"/>
       <c s="1" r="M67" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c s="1" r="N67" t="s">
         <v>58</v>
@@ -52684,11 +52032,9 @@
       </c>
       <c s="1" r="J68" t="n"/>
       <c s="1" r="K68" t="n"/>
-      <c s="1" r="L68" t="n">
-        <v>171073268.4397108</v>
-      </c>
+      <c s="1" r="L68" t="n"/>
       <c s="1" r="M68" t="n">
-        <v>0.7128052851654617</v>
+        <v>0</v>
       </c>
       <c s="1" r="N68" t="s">
         <v>58</v>
@@ -52724,11 +52070,9 @@
       </c>
       <c s="1" r="J69" t="n"/>
       <c s="1" r="K69" t="n"/>
-      <c s="1" r="L69" t="n">
-        <v>149965188.3429972</v>
-      </c>
+      <c s="1" r="L69" t="n"/>
       <c s="1" r="M69" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N69" t="s">
         <v>58</v>
@@ -52764,11 +52108,9 @@
       </c>
       <c s="1" r="J70" t="n"/>
       <c s="1" r="K70" t="n"/>
-      <c s="1" r="L70" t="n">
-        <v>865228659.9895686</v>
-      </c>
+      <c s="1" r="L70" t="n"/>
       <c s="1" r="M70" t="n">
-        <v>3.605119416623203</v>
+        <v>0</v>
       </c>
       <c s="1" r="N70" t="s">
         <v>58</v>
@@ -52804,11 +52146,9 @@
       </c>
       <c s="1" r="J71" t="n"/>
       <c s="1" r="K71" t="n"/>
-      <c s="1" r="L71" t="n">
-        <v>222436512.5790146</v>
-      </c>
+      <c s="1" r="L71" t="n"/>
       <c s="1" r="M71" t="n">
-        <v>0.995</v>
+        <v>0</v>
       </c>
       <c s="1" r="N71" t="s">
         <v>58</v>
@@ -52844,11 +52184,9 @@
       </c>
       <c s="1" r="J72" t="n"/>
       <c s="1" r="K72" t="n"/>
-      <c s="1" r="L72" t="n">
-        <v>165061927.7421155</v>
-      </c>
+      <c s="1" r="L72" t="n"/>
       <c s="1" r="M72" t="n">
-        <v>0.6877580322588144</v>
+        <v>0</v>
       </c>
       <c s="1" r="N72" t="s">
         <v>58</v>
@@ -52884,11 +52222,9 @@
       </c>
       <c s="1" r="J73" t="n"/>
       <c s="1" r="K73" t="n"/>
-      <c s="1" r="L73" t="n">
-        <v>72252851.66257006</v>
-      </c>
+      <c s="1" r="L73" t="n"/>
       <c s="1" r="M73" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c s="1" r="N73" t="s">
         <v>58</v>
@@ -52924,11 +52260,9 @@
       </c>
       <c s="1" r="J74" t="n"/>
       <c s="1" r="K74" t="n"/>
-      <c s="1" r="L74" t="n">
-        <v>41461528.19548872</v>
-      </c>
+      <c s="1" r="L74" t="n"/>
       <c s="1" r="M74" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c s="1" r="N74" t="s">
         <v>58</v>
@@ -52964,11 +52298,9 @@
       </c>
       <c s="1" r="J75" t="n"/>
       <c s="1" r="K75" t="n"/>
-      <c s="1" r="L75" t="n">
-        <v>587333647.3362962</v>
-      </c>
+      <c s="1" r="L75" t="n"/>
       <c s="1" r="M75" t="n">
-        <v>2.4472235305679</v>
+        <v>0</v>
       </c>
       <c s="1" r="N75" t="s">
         <v>58</v>
@@ -53004,11 +52336,9 @@
       </c>
       <c s="1" r="J76" t="n"/>
       <c s="1" r="K76" t="n"/>
-      <c s="1" r="L76" t="n">
-        <v>1650294986.571416</v>
-      </c>
+      <c s="1" r="L76" t="n"/>
       <c s="1" r="M76" t="n">
-        <v>6.876229110714233</v>
+        <v>0</v>
       </c>
       <c s="1" r="N76" t="s">
         <v>58</v>
@@ -53044,11 +52374,9 @@
       </c>
       <c s="1" r="J77" t="n"/>
       <c s="1" r="K77" t="n"/>
-      <c s="1" r="L77" t="n">
-        <v>640353589.4867249</v>
-      </c>
+      <c s="1" r="L77" t="n"/>
       <c s="1" r="M77" t="n">
-        <v>2.668139956194687</v>
+        <v>0</v>
       </c>
       <c s="1" r="N77" t="s">
         <v>58</v>
@@ -53084,11 +52412,9 @@
       </c>
       <c s="1" r="J78" t="n"/>
       <c s="1" r="K78" t="n"/>
-      <c s="1" r="L78" t="n">
-        <v>480315.7688676387</v>
-      </c>
+      <c s="1" r="L78" t="n"/>
       <c s="1" r="M78" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c s="1" r="N78" t="s">
         <v>56</v>
@@ -53158,11 +52484,9 @@
       </c>
       <c s="1" r="J80" t="n"/>
       <c s="1" r="K80" t="n"/>
-      <c s="1" r="L80" t="n">
-        <v>2026908242.824694</v>
-      </c>
+      <c s="1" r="L80" t="n"/>
       <c s="1" r="M80" t="n">
-        <v>8.44545101176956</v>
+        <v>0</v>
       </c>
       <c s="1" r="N80" t="s">
         <v>58</v>
@@ -53198,11 +52522,9 @@
       </c>
       <c s="1" r="J81" t="n"/>
       <c s="1" r="K81" t="n"/>
-      <c s="1" r="L81" t="n">
-        <v>71621660.33103204</v>
-      </c>
+      <c s="1" r="L81" t="n"/>
       <c s="1" r="M81" t="n">
-        <v>0.2984235847126335</v>
+        <v>0</v>
       </c>
       <c s="1" r="N81" t="s">
         <v>58</v>
@@ -53238,11 +52560,9 @@
       </c>
       <c s="1" r="J82" t="n"/>
       <c s="1" r="K82" t="n"/>
-      <c s="1" r="L82" t="n">
-        <v>60392921.02858199</v>
-      </c>
+      <c s="1" r="L82" t="n"/>
       <c s="1" r="M82" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c s="1" r="N82" t="s">
         <v>58</v>
@@ -53278,11 +52598,9 @@
       </c>
       <c s="1" r="J83" t="n"/>
       <c s="1" r="K83" t="n"/>
-      <c s="1" r="L83" t="n">
-        <v>369643939.8370136</v>
-      </c>
+      <c s="1" r="L83" t="n"/>
       <c s="1" r="M83" t="n">
-        <v>1.540183082654223</v>
+        <v>0</v>
       </c>
       <c s="1" r="N83" t="s">
         <v>58</v>
@@ -53318,11 +52636,9 @@
       </c>
       <c s="1" r="J84" t="n"/>
       <c s="1" r="K84" t="n"/>
-      <c s="1" r="L84" t="n">
-        <v>718114860.1367459</v>
-      </c>
+      <c s="1" r="L84" t="n"/>
       <c s="1" r="M84" t="n">
-        <v>2.992145250569775</v>
+        <v>0</v>
       </c>
       <c s="1" r="N84" t="s">
         <v>58</v>
@@ -53358,11 +52674,9 @@
       </c>
       <c s="1" r="J85" t="n"/>
       <c s="1" r="K85" t="n"/>
-      <c s="1" r="L85" t="n">
-        <v>2452117278.881083</v>
-      </c>
+      <c s="1" r="L85" t="n"/>
       <c s="1" r="M85" t="n">
-        <v>10.21715532867118</v>
+        <v>0</v>
       </c>
       <c s="1" r="N85" t="s">
         <v>58</v>
@@ -53398,11 +52712,9 @@
       </c>
       <c s="1" r="J86" t="n"/>
       <c s="1" r="K86" t="n"/>
-      <c s="1" r="L86" t="n">
-        <v>496781285.9892048</v>
-      </c>
+      <c s="1" r="L86" t="n"/>
       <c s="1" r="M86" t="n">
-        <v>2.06992202495502</v>
+        <v>0</v>
       </c>
       <c s="1" r="N86" t="s">
         <v>58</v>
@@ -53438,11 +52750,9 @@
       </c>
       <c s="1" r="J87" t="n"/>
       <c s="1" r="K87" t="n"/>
-      <c s="1" r="L87" t="n">
-        <v>489721132.1376259</v>
-      </c>
+      <c s="1" r="L87" t="n"/>
       <c s="1" r="M87" t="n">
-        <v>2.040504717240108</v>
+        <v>0</v>
       </c>
       <c s="1" r="N87" t="s">
         <v>58</v>
@@ -53478,11 +52788,9 @@
       </c>
       <c s="1" r="J88" t="n"/>
       <c s="1" r="K88" t="n"/>
-      <c s="1" r="L88" t="n">
-        <v>133915345.8479641</v>
-      </c>
+      <c s="1" r="L88" t="n"/>
       <c s="1" r="M88" t="n">
-        <v>0.5579806076998501</v>
+        <v>0</v>
       </c>
       <c s="1" r="N88" t="s">
         <v>58</v>
@@ -53518,11 +52826,9 @@
       </c>
       <c s="1" r="J89" t="n"/>
       <c s="1" r="K89" t="n"/>
-      <c s="1" r="L89" t="n">
-        <v>1647560933.840016</v>
-      </c>
+      <c s="1" r="L89" t="n"/>
       <c s="1" r="M89" t="n">
-        <v>6.864837224333402</v>
+        <v>0</v>
       </c>
       <c s="1" r="N89" t="s">
         <v>58</v>
@@ -53558,11 +52864,9 @@
       </c>
       <c s="1" r="J90" t="n"/>
       <c s="1" r="K90" t="n"/>
-      <c s="1" r="L90" t="n">
-        <v>406577581.2136937</v>
-      </c>
+      <c s="1" r="L90" t="n"/>
       <c s="1" r="M90" t="n">
-        <v>1.694073255057057</v>
+        <v>0</v>
       </c>
       <c s="1" r="N90" t="s">
         <v>58</v>
@@ -53598,11 +52902,9 @@
       </c>
       <c s="1" r="J91" t="n"/>
       <c s="1" r="K91" t="n"/>
-      <c s="1" r="L91" t="n">
-        <v>288254306.379456</v>
-      </c>
+      <c s="1" r="L91" t="n"/>
       <c s="1" r="M91" t="n">
-        <v>1.2010596099144</v>
+        <v>0</v>
       </c>
       <c s="1" r="N91" t="s">
         <v>58</v>
@@ -53638,11 +52940,9 @@
       </c>
       <c s="1" r="J92" t="n"/>
       <c s="1" r="K92" t="n"/>
-      <c s="1" r="L92" t="n">
-        <v>147701058.3527982</v>
-      </c>
+      <c s="1" r="L92" t="n"/>
       <c s="1" r="M92" t="n">
-        <v>0.6154210764699924</v>
+        <v>0</v>
       </c>
       <c s="1" r="N92" t="s">
         <v>58</v>
@@ -53678,11 +52978,9 @@
       </c>
       <c s="1" r="J93" t="n"/>
       <c s="1" r="K93" t="n"/>
-      <c s="1" r="L93" t="n">
-        <v>535637705.2210901</v>
-      </c>
+      <c s="1" r="L93" t="n"/>
       <c s="1" r="M93" t="n">
-        <v>2.231823771754542</v>
+        <v>0</v>
       </c>
       <c s="1" r="N93" t="s">
         <v>58</v>
@@ -53718,11 +53016,9 @@
       </c>
       <c s="1" r="J94" t="n"/>
       <c s="1" r="K94" t="n"/>
-      <c s="1" r="L94" t="n">
-        <v>225671524.7436272</v>
-      </c>
+      <c s="1" r="L94" t="n"/>
       <c s="1" r="M94" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c s="1" r="N94" t="s">
         <v>58</v>
@@ -53758,11 +53054,9 @@
       </c>
       <c s="1" r="J95" t="n"/>
       <c s="1" r="K95" t="n"/>
-      <c s="1" r="L95" t="n">
-        <v>1136504909.825811</v>
-      </c>
+      <c s="1" r="L95" t="n"/>
       <c s="1" r="M95" t="n">
-        <v>4.735437124274211</v>
+        <v>0</v>
       </c>
       <c s="1" r="N95" t="s">
         <v>58</v>
@@ -53798,11 +53092,9 @@
       </c>
       <c s="1" r="J96" t="n"/>
       <c s="1" r="K96" t="n"/>
-      <c s="1" r="L96" t="n">
-        <v>358362590.3568678</v>
-      </c>
+      <c s="1" r="L96" t="n"/>
       <c s="1" r="M96" t="n">
-        <v>1.493177459820283</v>
+        <v>0</v>
       </c>
       <c s="1" r="N96" t="s">
         <v>58</v>
@@ -53838,11 +53130,9 @@
       </c>
       <c s="1" r="J97" t="n"/>
       <c s="1" r="K97" t="n"/>
-      <c s="1" r="L97" t="n">
-        <v>38896517.83554512</v>
-      </c>
+      <c s="1" r="L97" t="n"/>
       <c s="1" r="M97" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c s="1" r="N97" t="s">
         <v>58</v>
@@ -53878,11 +53168,9 @@
       </c>
       <c s="1" r="J98" t="n"/>
       <c s="1" r="K98" t="n"/>
-      <c s="1" r="L98" t="n">
-        <v>246391107.1493456</v>
-      </c>
+      <c s="1" r="L98" t="n"/>
       <c s="1" r="M98" t="n">
-        <v>1.026629613122273</v>
+        <v>0</v>
       </c>
       <c s="1" r="N98" t="s">
         <v>58</v>
@@ -53918,11 +53206,9 @@
       </c>
       <c s="1" r="J99" t="n"/>
       <c s="1" r="K99" t="n"/>
-      <c s="1" r="L99" t="n">
-        <v>377582594.9617304</v>
-      </c>
+      <c s="1" r="L99" t="n"/>
       <c s="1" r="M99" t="n">
-        <v>1.573260812340543</v>
+        <v>0</v>
       </c>
       <c s="1" r="N99" t="s">
         <v>58</v>
@@ -53958,11 +53244,9 @@
       </c>
       <c s="1" r="J100" t="n"/>
       <c s="1" r="K100" t="n"/>
-      <c s="1" r="L100" t="n">
-        <v>1099735039.376274</v>
-      </c>
+      <c s="1" r="L100" t="n"/>
       <c s="1" r="M100" t="n">
-        <v>4.582229330734476</v>
+        <v>0</v>
       </c>
       <c s="1" r="N100" t="s">
         <v>58</v>
@@ -53998,11 +53282,9 @@
       </c>
       <c s="1" r="J101" t="n"/>
       <c s="1" r="K101" t="n"/>
-      <c s="1" r="L101" t="n">
-        <v>104731721.6136882</v>
-      </c>
+      <c s="1" r="L101" t="n"/>
       <c s="1" r="M101" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c s="1" r="N101" t="s">
         <v>58</v>
@@ -54038,11 +53320,9 @@
       </c>
       <c s="1" r="J102" t="n"/>
       <c s="1" r="K102" t="n"/>
-      <c s="1" r="L102" t="n">
-        <v>523677914.5095442</v>
-      </c>
+      <c s="1" r="L102" t="n"/>
       <c s="1" r="M102" t="n">
-        <v>2.181991310456434</v>
+        <v>0</v>
       </c>
       <c s="1" r="N102" t="s">
         <v>58</v>
@@ -54078,11 +53358,9 @@
       </c>
       <c s="1" r="J103" t="n"/>
       <c s="1" r="K103" t="n"/>
-      <c s="1" r="L103" t="n">
-        <v>36813395.54309931</v>
-      </c>
+      <c s="1" r="L103" t="n"/>
       <c s="1" r="M103" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c s="1" r="N103" t="s">
         <v>58</v>
@@ -54118,11 +53396,9 @@
       </c>
       <c s="1" r="J104" t="n"/>
       <c s="1" r="K104" t="n"/>
-      <c s="1" r="L104" t="n">
-        <v>566065376.0645214</v>
-      </c>
+      <c s="1" r="L104" t="n"/>
       <c s="1" r="M104" t="n">
-        <v>2.358605733602173</v>
+        <v>0</v>
       </c>
       <c s="1" r="N104" t="s">
         <v>58</v>
@@ -54158,11 +53434,9 @@
       </c>
       <c s="1" r="J105" t="n"/>
       <c s="1" r="K105" t="n"/>
-      <c s="1" r="L105" t="n">
-        <v>860573462.9574702</v>
-      </c>
+      <c s="1" r="L105" t="n"/>
       <c s="1" r="M105" t="n">
-        <v>3.585722762322793</v>
+        <v>0</v>
       </c>
       <c s="1" r="N105" t="s">
         <v>58</v>
@@ -54198,11 +53472,9 @@
       </c>
       <c s="1" r="J106" t="n"/>
       <c s="1" r="K106" t="n"/>
-      <c s="1" r="L106" t="n">
-        <v>186750249.7596833</v>
-      </c>
+      <c s="1" r="L106" t="n"/>
       <c s="1" r="M106" t="n">
-        <v>0.778126040665347</v>
+        <v>0</v>
       </c>
       <c s="1" r="N106" t="s">
         <v>58</v>
@@ -54238,11 +53510,9 @@
       </c>
       <c s="1" r="J107" t="n"/>
       <c s="1" r="K107" t="n"/>
-      <c s="1" r="L107" t="n">
-        <v>251908172.8218114</v>
-      </c>
+      <c s="1" r="L107" t="n"/>
       <c s="1" r="M107" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c s="1" r="N107" t="s">
         <v>58</v>
@@ -54278,11 +53548,9 @@
       </c>
       <c s="1" r="J108" t="n"/>
       <c s="1" r="K108" t="n"/>
-      <c s="1" r="L108" t="n">
-        <v>112320991.3184956</v>
-      </c>
+      <c s="1" r="L108" t="n"/>
       <c s="1" r="M108" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c s="1" r="N108" t="s">
         <v>58</v>
@@ -54318,11 +53586,9 @@
       </c>
       <c s="1" r="J109" t="n"/>
       <c s="1" r="K109" t="n"/>
-      <c s="1" r="L109" t="n">
-        <v>350358848.5443973</v>
-      </c>
+      <c s="1" r="L109" t="n"/>
       <c s="1" r="M109" t="n">
-        <v>1.459828535601655</v>
+        <v>0</v>
       </c>
       <c s="1" r="N109" t="s">
         <v>58</v>
@@ -54358,11 +53624,9 @@
       </c>
       <c s="1" r="J110" t="n"/>
       <c s="1" r="K110" t="n"/>
-      <c s="1" r="L110" t="n">
-        <v>77692875.13463369</v>
-      </c>
+      <c s="1" r="L110" t="n"/>
       <c s="1" r="M110" t="n">
-        <v>0.845</v>
+        <v>0</v>
       </c>
       <c s="1" r="N110" t="s">
         <v>58</v>
@@ -54398,11 +53662,9 @@
       </c>
       <c s="1" r="J111" t="n"/>
       <c s="1" r="K111" t="n"/>
-      <c s="1" r="L111" t="n">
-        <v>76565600.68161371</v>
-      </c>
+      <c s="1" r="L111" t="n"/>
       <c s="1" r="M111" t="n">
-        <v>0.905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N111" t="s">
         <v>58</v>
@@ -54438,11 +53700,9 @@
       </c>
       <c s="1" r="J112" t="n"/>
       <c s="1" r="K112" t="n"/>
-      <c s="1" r="L112" t="n">
-        <v>3075352073.772311</v>
-      </c>
+      <c s="1" r="L112" t="n"/>
       <c s="1" r="M112" t="n">
-        <v>12.81396697405129</v>
+        <v>0</v>
       </c>
       <c s="1" r="N112" t="s">
         <v>58</v>
@@ -54478,11 +53738,9 @@
       </c>
       <c s="1" r="J113" t="n"/>
       <c s="1" r="K113" t="n"/>
-      <c s="1" r="L113" t="n">
-        <v>1855381841.950119</v>
-      </c>
+      <c s="1" r="L113" t="n"/>
       <c s="1" r="M113" t="n">
-        <v>7.730757674792163</v>
+        <v>0</v>
       </c>
       <c s="1" r="N113" t="s">
         <v>58</v>
@@ -54518,11 +53776,9 @@
       </c>
       <c s="1" r="J114" t="n"/>
       <c s="1" r="K114" t="n"/>
-      <c s="1" r="L114" t="n">
-        <v>1541330477.407039</v>
-      </c>
+      <c s="1" r="L114" t="n"/>
       <c s="1" r="M114" t="n">
-        <v>6.42221032252933</v>
+        <v>0</v>
       </c>
       <c s="1" r="N114" t="s">
         <v>58</v>
@@ -54558,11 +53814,9 @@
       </c>
       <c s="1" r="J115" t="n"/>
       <c s="1" r="K115" t="n"/>
-      <c s="1" r="L115" t="n">
-        <v>1176966257.359681</v>
-      </c>
+      <c s="1" r="L115" t="n"/>
       <c s="1" r="M115" t="n">
-        <v>4.904026072332004</v>
+        <v>0</v>
       </c>
       <c s="1" r="N115" t="s">
         <v>58</v>
@@ -54598,11 +53852,9 @@
       </c>
       <c s="1" r="J116" t="n"/>
       <c s="1" r="K116" t="n"/>
-      <c s="1" r="L116" t="n">
-        <v>205897752.5033751</v>
-      </c>
+      <c s="1" r="L116" t="n"/>
       <c s="1" r="M116" t="n">
-        <v>0.8579073020973964</v>
+        <v>0</v>
       </c>
       <c s="1" r="N116" t="s">
         <v>58</v>
@@ -54638,11 +53890,9 @@
       </c>
       <c s="1" r="J117" t="n"/>
       <c s="1" r="K117" t="n"/>
-      <c s="1" r="L117" t="n">
-        <v>1490381130.083822</v>
-      </c>
+      <c s="1" r="L117" t="n"/>
       <c s="1" r="M117" t="n">
-        <v>6.209921375349261</v>
+        <v>0</v>
       </c>
       <c s="1" r="N117" t="s">
         <v>58</v>
@@ -54678,11 +53928,9 @@
       </c>
       <c s="1" r="J118" t="n"/>
       <c s="1" r="K118" t="n"/>
-      <c s="1" r="L118" t="n">
-        <v>322236509.8308355</v>
-      </c>
+      <c s="1" r="L118" t="n"/>
       <c s="1" r="M118" t="n">
-        <v>1.342652124295148</v>
+        <v>0</v>
       </c>
       <c s="1" r="N118" t="s">
         <v>58</v>
@@ -54718,11 +53966,9 @@
       </c>
       <c s="1" r="J119" t="n"/>
       <c s="1" r="K119" t="n"/>
-      <c s="1" r="L119" t="n">
-        <v>109102005.0887885</v>
-      </c>
+      <c s="1" r="L119" t="n"/>
       <c s="1" r="M119" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c s="1" r="N119" t="s">
         <v>58</v>
@@ -54758,11 +54004,9 @@
       </c>
       <c s="1" r="J120" t="n"/>
       <c s="1" r="K120" t="n"/>
-      <c s="1" r="L120" t="n">
-        <v>1034208982.101372</v>
-      </c>
+      <c s="1" r="L120" t="n"/>
       <c s="1" r="M120" t="n">
-        <v>4.30920409208905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N120" t="s">
         <v>58</v>
@@ -54798,11 +54042,9 @@
       </c>
       <c s="1" r="J121" t="n"/>
       <c s="1" r="K121" t="n"/>
-      <c s="1" r="L121" t="n">
-        <v>1000888707.730626</v>
-      </c>
+      <c s="1" r="L121" t="n"/>
       <c s="1" r="M121" t="n">
-        <v>4.170369615544275</v>
+        <v>0</v>
       </c>
       <c s="1" r="N121" t="s">
         <v>58</v>
@@ -54838,11 +54080,9 @@
       </c>
       <c s="1" r="J122" t="n"/>
       <c s="1" r="K122" t="n"/>
-      <c s="1" r="L122" t="n">
-        <v>180002829.7701165</v>
-      </c>
+      <c s="1" r="L122" t="n"/>
       <c s="1" r="M122" t="n">
-        <v>0.750011790708819</v>
+        <v>0</v>
       </c>
       <c s="1" r="N122" t="s">
         <v>58</v>
@@ -54878,11 +54118,9 @@
       </c>
       <c s="1" r="J123" t="n"/>
       <c s="1" r="K123" t="n"/>
-      <c s="1" r="L123" t="n">
-        <v>209080684.5236857</v>
-      </c>
+      <c s="1" r="L123" t="n"/>
       <c s="1" r="M123" t="n">
-        <v>0.8711695188486905</v>
+        <v>0</v>
       </c>
       <c s="1" r="N123" t="s">
         <v>58</v>
@@ -54918,11 +54156,9 @@
       </c>
       <c s="1" r="J124" t="n"/>
       <c s="1" r="K124" t="n"/>
-      <c s="1" r="L124" t="n">
-        <v>1676412264.249379</v>
-      </c>
+      <c s="1" r="L124" t="n"/>
       <c s="1" r="M124" t="n">
-        <v>6.98505110103908</v>
+        <v>0</v>
       </c>
       <c s="1" r="N124" t="s">
         <v>58</v>
@@ -54958,11 +54194,9 @@
       </c>
       <c s="1" r="J125" t="n"/>
       <c s="1" r="K125" t="n"/>
-      <c s="1" r="L125" t="n">
-        <v>265005493.6855074</v>
-      </c>
+      <c s="1" r="L125" t="n"/>
       <c s="1" r="M125" t="n">
-        <v>1.104189557022947</v>
+        <v>0</v>
       </c>
       <c s="1" r="N125" t="s">
         <v>58</v>
@@ -54998,11 +54232,9 @@
       </c>
       <c s="1" r="J126" t="n"/>
       <c s="1" r="K126" t="n"/>
-      <c s="1" r="L126" t="n">
-        <v>394327197.737304</v>
-      </c>
+      <c s="1" r="L126" t="n"/>
       <c s="1" r="M126" t="n">
-        <v>1.6430299905721</v>
+        <v>0</v>
       </c>
       <c s="1" r="N126" t="s">
         <v>58</v>
@@ -55038,11 +54270,9 @@
       </c>
       <c s="1" r="J127" t="n"/>
       <c s="1" r="K127" t="n"/>
-      <c s="1" r="L127" t="n">
-        <v>324368699.7033721</v>
-      </c>
+      <c s="1" r="L127" t="n"/>
       <c s="1" r="M127" t="n">
-        <v>1.35153624876405</v>
+        <v>0</v>
       </c>
       <c s="1" r="N127" t="s">
         <v>58</v>
@@ -55078,11 +54308,9 @@
       </c>
       <c s="1" r="J128" t="n"/>
       <c s="1" r="K128" t="n"/>
-      <c s="1" r="L128" t="n">
-        <v>1814529373.329412</v>
-      </c>
+      <c s="1" r="L128" t="n"/>
       <c s="1" r="M128" t="n">
-        <v>7.560539055539214</v>
+        <v>0</v>
       </c>
       <c s="1" r="N128" t="s">
         <v>58</v>
@@ -55118,11 +54346,9 @@
       </c>
       <c s="1" r="J129" t="n"/>
       <c s="1" r="K129" t="n"/>
-      <c s="1" r="L129" t="n">
-        <v>758691294.4710742</v>
-      </c>
+      <c s="1" r="L129" t="n"/>
       <c s="1" r="M129" t="n">
-        <v>3.161213726962809</v>
+        <v>0</v>
       </c>
       <c s="1" r="N129" t="s">
         <v>58</v>
@@ -55158,11 +54384,9 @@
       </c>
       <c s="1" r="J130" t="n"/>
       <c s="1" r="K130" t="n"/>
-      <c s="1" r="L130" t="n">
-        <v>865640841.4652407</v>
-      </c>
+      <c s="1" r="L130" t="n"/>
       <c s="1" r="M130" t="n">
-        <v>3.606836839438504</v>
+        <v>0</v>
       </c>
       <c s="1" r="N130" t="s">
         <v>58</v>
@@ -55198,11 +54422,9 @@
       </c>
       <c s="1" r="J131" t="n"/>
       <c s="1" r="K131" t="n"/>
-      <c s="1" r="L131" t="n">
-        <v>476348208.626933</v>
-      </c>
+      <c s="1" r="L131" t="n"/>
       <c s="1" r="M131" t="n">
-        <v>1.984784202612221</v>
+        <v>0</v>
       </c>
       <c s="1" r="N131" t="s">
         <v>58</v>
@@ -55238,11 +54460,9 @@
       </c>
       <c s="1" r="J132" t="n"/>
       <c s="1" r="K132" t="n"/>
-      <c s="1" r="L132" t="n">
-        <v>666260533.0362391</v>
-      </c>
+      <c s="1" r="L132" t="n"/>
       <c s="1" r="M132" t="n">
-        <v>2.776085554317663</v>
+        <v>0</v>
       </c>
       <c s="1" r="N132" t="s">
         <v>58</v>
@@ -55278,11 +54498,9 @@
       </c>
       <c s="1" r="J133" t="n"/>
       <c s="1" r="K133" t="n"/>
-      <c s="1" r="L133" t="n">
-        <v>738737425.2336342</v>
-      </c>
+      <c s="1" r="L133" t="n"/>
       <c s="1" r="M133" t="n">
-        <v>3.078072605140143</v>
+        <v>0</v>
       </c>
       <c s="1" r="N133" t="s">
         <v>58</v>
@@ -55318,11 +54536,9 @@
       </c>
       <c s="1" r="J134" t="n"/>
       <c s="1" r="K134" t="n"/>
-      <c s="1" r="L134" t="n">
-        <v>49993651.89923508</v>
-      </c>
+      <c s="1" r="L134" t="n"/>
       <c s="1" r="M134" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c s="1" r="N134" t="s">
         <v>58</v>
@@ -55358,11 +54574,9 @@
       </c>
       <c s="1" r="J135" t="n"/>
       <c s="1" r="K135" t="n"/>
-      <c s="1" r="L135" t="n">
-        <v>2197428637.482756</v>
-      </c>
+      <c s="1" r="L135" t="n"/>
       <c s="1" r="M135" t="n">
-        <v>9.155952656178149</v>
+        <v>0</v>
       </c>
       <c s="1" r="N135" t="s">
         <v>58</v>
@@ -55398,11 +54612,9 @@
       </c>
       <c s="1" r="J136" t="n"/>
       <c s="1" r="K136" t="n"/>
-      <c s="1" r="L136" t="n">
-        <v>1375681811.140761</v>
-      </c>
+      <c s="1" r="L136" t="n"/>
       <c s="1" r="M136" t="n">
-        <v>5.732007546419837</v>
+        <v>0</v>
       </c>
       <c s="1" r="N136" t="s">
         <v>58</v>
@@ -55438,11 +54650,9 @@
       </c>
       <c s="1" r="J137" t="n"/>
       <c s="1" r="K137" t="n"/>
-      <c s="1" r="L137" t="n">
-        <v>141382216.393462</v>
-      </c>
+      <c s="1" r="L137" t="n"/>
       <c s="1" r="M137" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c s="1" r="N137" t="s">
         <v>58</v>
@@ -55478,11 +54688,9 @@
       </c>
       <c s="1" r="J138" t="n"/>
       <c s="1" r="K138" t="n"/>
-      <c s="1" r="L138" t="n">
-        <v>182251239.5922147</v>
-      </c>
+      <c s="1" r="L138" t="n"/>
       <c s="1" r="M138" t="n">
-        <v>0.7593801649675613</v>
+        <v>0</v>
       </c>
       <c s="1" r="N138" t="s">
         <v>58</v>
@@ -55518,11 +54726,9 @@
       </c>
       <c s="1" r="J139" t="n"/>
       <c s="1" r="K139" t="n"/>
-      <c s="1" r="L139" t="n">
-        <v>86590180.89450546</v>
-      </c>
+      <c s="1" r="L139" t="n"/>
       <c s="1" r="M139" t="n">
-        <v>0.3607924203937727</v>
+        <v>0</v>
       </c>
       <c s="1" r="N139" t="s">
         <v>58</v>
@@ -55558,11 +54764,9 @@
       </c>
       <c s="1" r="J140" t="n"/>
       <c s="1" r="K140" t="n"/>
-      <c s="1" r="L140" t="n">
-        <v>198214219.5119653</v>
-      </c>
+      <c s="1" r="L140" t="n"/>
       <c s="1" r="M140" t="n">
-        <v>0.8258925812998554</v>
+        <v>0</v>
       </c>
       <c s="1" r="N140" t="s">
         <v>58</v>
@@ -55598,11 +54802,9 @@
       </c>
       <c s="1" r="J141" t="n"/>
       <c s="1" r="K141" t="n"/>
-      <c s="1" r="L141" t="n">
-        <v>85562194.4161329</v>
-      </c>
+      <c s="1" r="L141" t="n"/>
       <c s="1" r="M141" t="n">
-        <v>0.3565091434005537</v>
+        <v>0</v>
       </c>
       <c s="1" r="N141" t="s">
         <v>58</v>
@@ -55638,11 +54840,9 @@
       </c>
       <c s="1" r="J142" t="n"/>
       <c s="1" r="K142" t="n"/>
-      <c s="1" r="L142" t="n">
-        <v>813080314.358644</v>
-      </c>
+      <c s="1" r="L142" t="n"/>
       <c s="1" r="M142" t="n">
-        <v>3.387834643161017</v>
+        <v>0</v>
       </c>
       <c s="1" r="N142" t="s">
         <v>58</v>
@@ -55678,11 +54878,9 @@
       </c>
       <c s="1" r="J143" t="n"/>
       <c s="1" r="K143" t="n"/>
-      <c s="1" r="L143" t="n">
-        <v>352771499.0952066</v>
-      </c>
+      <c s="1" r="L143" t="n"/>
       <c s="1" r="M143" t="n">
-        <v>1.469881246230027</v>
+        <v>0</v>
       </c>
       <c s="1" r="N143" t="s">
         <v>58</v>
@@ -55718,11 +54916,9 @@
       </c>
       <c s="1" r="J144" t="n"/>
       <c s="1" r="K144" t="n"/>
-      <c s="1" r="L144" t="n">
-        <v>961112738.5257416</v>
-      </c>
+      <c s="1" r="L144" t="n"/>
       <c s="1" r="M144" t="n">
-        <v>4.004636410523923</v>
+        <v>0</v>
       </c>
       <c s="1" r="N144" t="s">
         <v>58</v>
@@ -55792,11 +54988,9 @@
       </c>
       <c s="1" r="J146" t="n"/>
       <c s="1" r="K146" t="n"/>
-      <c s="1" r="L146" t="n">
-        <v>428897227.7640692</v>
-      </c>
+      <c s="1" r="L146" t="n"/>
       <c s="1" r="M146" t="n">
-        <v>1.787071782350289</v>
+        <v>0</v>
       </c>
       <c s="1" r="N146" t="s">
         <v>58</v>
@@ -55832,11 +55026,9 @@
       </c>
       <c s="1" r="J147" t="n"/>
       <c s="1" r="K147" t="n"/>
-      <c s="1" r="L147" t="n">
-        <v>221815515.7291227</v>
-      </c>
+      <c s="1" r="L147" t="n"/>
       <c s="1" r="M147" t="n">
-        <v>0.9242313155380112</v>
+        <v>0</v>
       </c>
       <c s="1" r="N147" t="s">
         <v>58</v>
@@ -55872,11 +55064,9 @@
       </c>
       <c s="1" r="J148" t="n"/>
       <c s="1" r="K148" t="n"/>
-      <c s="1" r="L148" t="n">
-        <v>286699376.7044205</v>
-      </c>
+      <c s="1" r="L148" t="n"/>
       <c s="1" r="M148" t="n">
-        <v>2.465</v>
+        <v>0</v>
       </c>
       <c s="1" r="N148" t="s">
         <v>58</v>
